--- a/input/raw_regions_joined.xlsx
+++ b/input/raw_regions_joined.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeStuff\Stats\colab_linear_regression\linear_regression\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A0B877-4413-43DF-AAFB-9542E901E467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9486DA10-E3E4-4D4C-9B8E-3D46DE03E741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24840" yWindow="6270" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24405" yWindow="5955" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>sul</t>
   </si>
@@ -58,6 +69,12 @@
   </si>
   <si>
     <t>group</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Brasil_total</t>
   </si>
 </sst>
 </file>
@@ -401,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DE11"/>
+  <dimension ref="A1:DE13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4033,6 +4050,664 @@
         <v>6596638</v>
       </c>
     </row>
+    <row r="12" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>109733</v>
+      </c>
+      <c r="C12">
+        <v>132194</v>
+      </c>
+      <c r="D12">
+        <v>140392</v>
+      </c>
+      <c r="E12">
+        <v>157427</v>
+      </c>
+      <c r="F12">
+        <v>173906</v>
+      </c>
+      <c r="G12">
+        <v>144407</v>
+      </c>
+      <c r="H12">
+        <v>154399</v>
+      </c>
+      <c r="I12">
+        <v>137556</v>
+      </c>
+      <c r="J12">
+        <v>129201</v>
+      </c>
+      <c r="K12">
+        <v>149843</v>
+      </c>
+      <c r="L12">
+        <v>122505</v>
+      </c>
+      <c r="M12">
+        <v>111066</v>
+      </c>
+      <c r="N12">
+        <v>234863</v>
+      </c>
+      <c r="O12">
+        <v>297615</v>
+      </c>
+      <c r="P12">
+        <v>300298</v>
+      </c>
+      <c r="Q12">
+        <v>268276</v>
+      </c>
+      <c r="R12">
+        <v>258148</v>
+      </c>
+      <c r="S12">
+        <v>202358</v>
+      </c>
+      <c r="T12">
+        <v>207287</v>
+      </c>
+      <c r="U12">
+        <v>212886</v>
+      </c>
+      <c r="V12">
+        <v>182008</v>
+      </c>
+      <c r="W12">
+        <v>189678</v>
+      </c>
+      <c r="X12">
+        <v>145222</v>
+      </c>
+      <c r="Y12">
+        <v>150276</v>
+      </c>
+      <c r="Z12">
+        <v>263849</v>
+      </c>
+      <c r="AA12">
+        <v>349077</v>
+      </c>
+      <c r="AB12">
+        <v>454198</v>
+      </c>
+      <c r="AC12">
+        <v>371794</v>
+      </c>
+      <c r="AD12">
+        <v>387238</v>
+      </c>
+      <c r="AE12">
+        <v>334235</v>
+      </c>
+      <c r="AF12">
+        <v>318899</v>
+      </c>
+      <c r="AG12">
+        <v>325042</v>
+      </c>
+      <c r="AH12">
+        <v>321409</v>
+      </c>
+      <c r="AI12">
+        <v>315705</v>
+      </c>
+      <c r="AJ12">
+        <v>268180</v>
+      </c>
+      <c r="AK12">
+        <v>280906</v>
+      </c>
+      <c r="AL12">
+        <v>321458</v>
+      </c>
+      <c r="AM12">
+        <v>403616</v>
+      </c>
+      <c r="AN12">
+        <v>458452</v>
+      </c>
+      <c r="AO12">
+        <v>419925</v>
+      </c>
+      <c r="AP12">
+        <v>462004</v>
+      </c>
+      <c r="AQ12">
+        <v>425664</v>
+      </c>
+      <c r="AR12">
+        <v>348253</v>
+      </c>
+      <c r="AS12">
+        <v>413615</v>
+      </c>
+      <c r="AT12">
+        <v>374843</v>
+      </c>
+      <c r="AU12">
+        <v>307380</v>
+      </c>
+      <c r="AV12">
+        <v>369303</v>
+      </c>
+      <c r="AW12">
+        <v>340011</v>
+      </c>
+      <c r="AX12">
+        <v>412074</v>
+      </c>
+      <c r="AY12">
+        <v>484277</v>
+      </c>
+      <c r="AZ12">
+        <v>484962</v>
+      </c>
+      <c r="BA12">
+        <v>506758</v>
+      </c>
+      <c r="BB12">
+        <v>449086</v>
+      </c>
+      <c r="BC12">
+        <v>449459</v>
+      </c>
+      <c r="BD12">
+        <v>407120</v>
+      </c>
+      <c r="BE12">
+        <v>347363</v>
+      </c>
+      <c r="BF12">
+        <v>310316</v>
+      </c>
+      <c r="BG12">
+        <v>394079</v>
+      </c>
+      <c r="BH12">
+        <v>376572</v>
+      </c>
+      <c r="BI12">
+        <v>390948</v>
+      </c>
+      <c r="BJ12">
+        <v>529192</v>
+      </c>
+      <c r="BK12">
+        <v>593931</v>
+      </c>
+      <c r="BL12">
+        <v>573349</v>
+      </c>
+      <c r="BM12">
+        <v>609764</v>
+      </c>
+      <c r="BN12">
+        <v>634236</v>
+      </c>
+      <c r="BO12">
+        <v>553220</v>
+      </c>
+      <c r="BP12">
+        <v>517351</v>
+      </c>
+      <c r="BQ12">
+        <v>510930</v>
+      </c>
+      <c r="BR12">
+        <v>477296</v>
+      </c>
+      <c r="BS12">
+        <v>512174</v>
+      </c>
+      <c r="BT12">
+        <v>451981</v>
+      </c>
+      <c r="BU12">
+        <v>425481</v>
+      </c>
+      <c r="BV12">
+        <v>640016</v>
+      </c>
+      <c r="BW12">
+        <v>721217</v>
+      </c>
+      <c r="BX12">
+        <v>742444</v>
+      </c>
+      <c r="BY12">
+        <v>773005</v>
+      </c>
+      <c r="BZ12">
+        <v>824211</v>
+      </c>
+      <c r="CA12">
+        <v>659304</v>
+      </c>
+      <c r="CB12">
+        <v>634538</v>
+      </c>
+      <c r="CC12">
+        <v>699867</v>
+      </c>
+      <c r="CD12">
+        <v>591594</v>
+      </c>
+      <c r="CE12">
+        <v>690295</v>
+      </c>
+      <c r="CF12">
+        <v>553196</v>
+      </c>
+      <c r="CG12">
+        <v>460830</v>
+      </c>
+      <c r="CH12">
+        <v>796610</v>
+      </c>
+      <c r="CI12">
+        <v>936466</v>
+      </c>
+      <c r="CJ12">
+        <v>996308</v>
+      </c>
+      <c r="CK12">
+        <v>923633</v>
+      </c>
+      <c r="CL12">
+        <v>1077663</v>
+      </c>
+      <c r="CM12">
+        <v>897392</v>
+      </c>
+      <c r="CN12">
+        <v>844447</v>
+      </c>
+      <c r="CO12">
+        <v>977161</v>
+      </c>
+      <c r="CP12">
+        <v>782448</v>
+      </c>
+      <c r="CQ12">
+        <v>959373</v>
+      </c>
+      <c r="CR12">
+        <v>735012</v>
+      </c>
+      <c r="CS12">
+        <v>785773</v>
+      </c>
+      <c r="CT12">
+        <v>810505</v>
+      </c>
+      <c r="CU12">
+        <v>985681</v>
+      </c>
+      <c r="CV12">
+        <v>1143762</v>
+      </c>
+      <c r="CW12">
+        <v>1100021</v>
+      </c>
+      <c r="CX12">
+        <v>1111217</v>
+      </c>
+      <c r="CY12">
+        <v>1067512</v>
+      </c>
+      <c r="CZ12">
+        <v>996029</v>
+      </c>
+      <c r="DA12">
+        <v>986689</v>
+      </c>
+      <c r="DB12">
+        <v>1090827</v>
+      </c>
+      <c r="DC12">
+        <v>928336</v>
+      </c>
+      <c r="DD12">
+        <v>898076</v>
+      </c>
+      <c r="DE12">
+        <v>960484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7205093</v>
+      </c>
+      <c r="C13">
+        <v>9646057</v>
+      </c>
+      <c r="D13">
+        <v>10472556</v>
+      </c>
+      <c r="E13">
+        <v>12191362</v>
+      </c>
+      <c r="F13">
+        <v>14043781</v>
+      </c>
+      <c r="G13">
+        <v>11493594</v>
+      </c>
+      <c r="H13">
+        <v>12604666</v>
+      </c>
+      <c r="I13">
+        <v>11755506</v>
+      </c>
+      <c r="J13">
+        <v>11242471</v>
+      </c>
+      <c r="K13">
+        <v>13130885</v>
+      </c>
+      <c r="L13">
+        <v>10104083</v>
+      </c>
+      <c r="M13">
+        <v>8232396</v>
+      </c>
+      <c r="N13">
+        <v>13329497</v>
+      </c>
+      <c r="O13">
+        <v>17686999</v>
+      </c>
+      <c r="P13">
+        <v>17842497</v>
+      </c>
+      <c r="Q13">
+        <v>16872893</v>
+      </c>
+      <c r="R13">
+        <v>17348265</v>
+      </c>
+      <c r="S13">
+        <v>14128559</v>
+      </c>
+      <c r="T13">
+        <v>14296146</v>
+      </c>
+      <c r="U13">
+        <v>15701307</v>
+      </c>
+      <c r="V13">
+        <v>12918940</v>
+      </c>
+      <c r="W13">
+        <v>13951230</v>
+      </c>
+      <c r="X13">
+        <v>10625801</v>
+      </c>
+      <c r="Y13">
+        <v>10643717</v>
+      </c>
+      <c r="Z13">
+        <v>14059001</v>
+      </c>
+      <c r="AA13">
+        <v>18438761</v>
+      </c>
+      <c r="AB13">
+        <v>24146684</v>
+      </c>
+      <c r="AC13">
+        <v>20066133</v>
+      </c>
+      <c r="AD13">
+        <v>21295471</v>
+      </c>
+      <c r="AE13">
+        <v>18796956</v>
+      </c>
+      <c r="AF13">
+        <v>17535895</v>
+      </c>
+      <c r="AG13">
+        <v>19291195</v>
+      </c>
+      <c r="AH13">
+        <v>18818333</v>
+      </c>
+      <c r="AI13">
+        <v>18712756</v>
+      </c>
+      <c r="AJ13">
+        <v>15280725</v>
+      </c>
+      <c r="AK13">
+        <v>16650688</v>
+      </c>
+      <c r="AL13">
+        <v>14159780</v>
+      </c>
+      <c r="AM13">
+        <v>18520682</v>
+      </c>
+      <c r="AN13">
+        <v>21420993</v>
+      </c>
+      <c r="AO13">
+        <v>19647635</v>
+      </c>
+      <c r="AP13">
+        <v>21611519</v>
+      </c>
+      <c r="AQ13">
+        <v>21322286</v>
+      </c>
+      <c r="AR13">
+        <v>18062631</v>
+      </c>
+      <c r="AS13">
+        <v>22296661</v>
+      </c>
+      <c r="AT13">
+        <v>20405616</v>
+      </c>
+      <c r="AU13">
+        <v>16078634</v>
+      </c>
+      <c r="AV13">
+        <v>20389977</v>
+      </c>
+      <c r="AW13">
+        <v>19409656</v>
+      </c>
+      <c r="AX13">
+        <v>16228765</v>
+      </c>
+      <c r="AY13">
+        <v>19270233</v>
+      </c>
+      <c r="AZ13">
+        <v>19095554</v>
+      </c>
+      <c r="BA13">
+        <v>19528646</v>
+      </c>
+      <c r="BB13">
+        <v>18055161</v>
+      </c>
+      <c r="BC13">
+        <v>18172799</v>
+      </c>
+      <c r="BD13">
+        <v>15197165</v>
+      </c>
+      <c r="BE13">
+        <v>12412552</v>
+      </c>
+      <c r="BF13">
+        <v>10478899</v>
+      </c>
+      <c r="BG13">
+        <v>17037445</v>
+      </c>
+      <c r="BH13">
+        <v>16520344</v>
+      </c>
+      <c r="BI13">
+        <v>17426499</v>
+      </c>
+      <c r="BJ13">
+        <v>20870224</v>
+      </c>
+      <c r="BK13">
+        <v>22606956</v>
+      </c>
+      <c r="BL13">
+        <v>21439554</v>
+      </c>
+      <c r="BM13">
+        <v>22122731</v>
+      </c>
+      <c r="BN13">
+        <v>23892737</v>
+      </c>
+      <c r="BO13">
+        <v>21779971</v>
+      </c>
+      <c r="BP13">
+        <v>21549941</v>
+      </c>
+      <c r="BQ13">
+        <v>22063295</v>
+      </c>
+      <c r="BR13">
+        <v>19054945</v>
+      </c>
+      <c r="BS13">
+        <v>21625066</v>
+      </c>
+      <c r="BT13">
+        <v>18225154</v>
+      </c>
+      <c r="BU13">
+        <v>17413861</v>
+      </c>
+      <c r="BV13">
+        <v>23928217</v>
+      </c>
+      <c r="BW13">
+        <v>26927362</v>
+      </c>
+      <c r="BX13">
+        <v>26677221</v>
+      </c>
+      <c r="BY13">
+        <v>26884283</v>
+      </c>
+      <c r="BZ13">
+        <v>31572161</v>
+      </c>
+      <c r="CA13">
+        <v>26865950</v>
+      </c>
+      <c r="CB13">
+        <v>26505361</v>
+      </c>
+      <c r="CC13">
+        <v>28270162</v>
+      </c>
+      <c r="CD13">
+        <v>23016715</v>
+      </c>
+      <c r="CE13">
+        <v>26096335</v>
+      </c>
+      <c r="CF13">
+        <v>22240304</v>
+      </c>
+      <c r="CG13">
+        <v>23911709</v>
+      </c>
+      <c r="CH13">
+        <v>25454786</v>
+      </c>
+      <c r="CI13">
+        <v>29912945</v>
+      </c>
+      <c r="CJ13">
+        <v>31539972</v>
+      </c>
+      <c r="CK13">
+        <v>28574833</v>
+      </c>
+      <c r="CL13">
+        <v>34826560</v>
+      </c>
+      <c r="CM13">
+        <v>29726466</v>
+      </c>
+      <c r="CN13">
+        <v>28747946</v>
+      </c>
+      <c r="CO13">
+        <v>34034554</v>
+      </c>
+      <c r="CP13">
+        <v>28705419</v>
+      </c>
+      <c r="CQ13">
+        <v>33952484</v>
+      </c>
+      <c r="CR13">
+        <v>24541421</v>
+      </c>
+      <c r="CS13">
+        <v>26879021</v>
+      </c>
+      <c r="CT13">
+        <v>25275132</v>
+      </c>
+      <c r="CU13">
+        <v>30378153</v>
+      </c>
+      <c r="CV13">
+        <v>35109997</v>
+      </c>
+      <c r="CW13">
+        <v>33724120</v>
+      </c>
+      <c r="CX13">
+        <v>34104504</v>
+      </c>
+      <c r="CY13">
+        <v>33044607</v>
+      </c>
+      <c r="CZ13">
+        <v>31531084</v>
+      </c>
+      <c r="DA13">
+        <v>32572819</v>
+      </c>
+      <c r="DB13">
+        <v>38382081</v>
+      </c>
+      <c r="DC13">
+        <v>32803507</v>
+      </c>
+      <c r="DD13">
+        <v>29122607</v>
+      </c>
+      <c r="DE13">
+        <v>29797837</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input/raw_regions_joined.xlsx
+++ b/input/raw_regions_joined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeStuff\Stats\colab_linear_regression\linear_regression\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9486DA10-E3E4-4D4C-9B8E-3D46DE03E741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB00962-0086-4E99-9425-FD81AF8EDA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24405" yWindow="5955" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>sul</t>
   </si>
@@ -75,6 +75,36 @@
   </si>
   <si>
     <t>Brasil_total</t>
+  </si>
+  <si>
+    <t>F00-F09 - Transtornos mentais orgânicos, inclusive os sintomáticos</t>
+  </si>
+  <si>
+    <t>F20-F29 - Esquizofrenia, transtornos esquizotípicos e transtornos delirantes</t>
+  </si>
+  <si>
+    <t>F30-F39 - Transtornos do humor [afetivos]</t>
+  </si>
+  <si>
+    <t>F40-F48 - Transtornos neuróticos, transtornos relacionados com o "stress" e transtornos somatoformes</t>
+  </si>
+  <si>
+    <t>F50-F59 - Síndromes comportamentais associadas a disfunções fisiológicas e a fatores físicos</t>
+  </si>
+  <si>
+    <t>F60-F69 - Transtornos da personalidade e do comportamento do adulto</t>
+  </si>
+  <si>
+    <t>F70-F79 - Retardo mental</t>
+  </si>
+  <si>
+    <t>F80-F89 - Transtornos do desenvolvimento psicológico</t>
+  </si>
+  <si>
+    <t>F90-F98 - Transtornos do comportamento e transtornos emocionais que aparecem habitualmente durante a infância ou a adolescência</t>
+  </si>
+  <si>
+    <t>F99-F99 - Transtorno mental não especificado</t>
   </si>
 </sst>
 </file>
@@ -418,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DE13"/>
+  <dimension ref="A1:DE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4708,6 +4738,6596 @@
         <v>29797837</v>
       </c>
     </row>
+    <row r="14" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5200</v>
+      </c>
+      <c r="C14">
+        <v>6601</v>
+      </c>
+      <c r="D14">
+        <v>7196</v>
+      </c>
+      <c r="E14">
+        <v>8275</v>
+      </c>
+      <c r="F14">
+        <v>9154</v>
+      </c>
+      <c r="G14">
+        <v>7941</v>
+      </c>
+      <c r="H14">
+        <v>7787</v>
+      </c>
+      <c r="I14">
+        <v>7075</v>
+      </c>
+      <c r="J14">
+        <v>6425</v>
+      </c>
+      <c r="K14">
+        <v>7519</v>
+      </c>
+      <c r="L14">
+        <v>6089</v>
+      </c>
+      <c r="M14">
+        <v>5386</v>
+      </c>
+      <c r="N14">
+        <v>11749</v>
+      </c>
+      <c r="O14">
+        <v>14329</v>
+      </c>
+      <c r="P14">
+        <v>14268</v>
+      </c>
+      <c r="Q14">
+        <v>13287</v>
+      </c>
+      <c r="R14">
+        <v>13113</v>
+      </c>
+      <c r="S14">
+        <v>10347</v>
+      </c>
+      <c r="T14">
+        <v>10864</v>
+      </c>
+      <c r="U14">
+        <v>10752</v>
+      </c>
+      <c r="V14">
+        <v>8939</v>
+      </c>
+      <c r="W14">
+        <v>9648</v>
+      </c>
+      <c r="X14">
+        <v>7439</v>
+      </c>
+      <c r="Y14">
+        <v>7553</v>
+      </c>
+      <c r="Z14">
+        <v>12743</v>
+      </c>
+      <c r="AA14">
+        <v>16075</v>
+      </c>
+      <c r="AB14">
+        <v>21959</v>
+      </c>
+      <c r="AC14">
+        <v>18451</v>
+      </c>
+      <c r="AD14">
+        <v>19437</v>
+      </c>
+      <c r="AE14">
+        <v>17034</v>
+      </c>
+      <c r="AF14">
+        <v>15782</v>
+      </c>
+      <c r="AG14">
+        <v>16036</v>
+      </c>
+      <c r="AH14">
+        <v>16223</v>
+      </c>
+      <c r="AI14">
+        <v>16054</v>
+      </c>
+      <c r="AJ14">
+        <v>13478</v>
+      </c>
+      <c r="AK14">
+        <v>14319</v>
+      </c>
+      <c r="AL14">
+        <v>15309</v>
+      </c>
+      <c r="AM14">
+        <v>18235</v>
+      </c>
+      <c r="AN14">
+        <v>20951</v>
+      </c>
+      <c r="AO14">
+        <v>19439</v>
+      </c>
+      <c r="AP14">
+        <v>22423</v>
+      </c>
+      <c r="AQ14">
+        <v>20754</v>
+      </c>
+      <c r="AR14">
+        <v>16354</v>
+      </c>
+      <c r="AS14">
+        <v>19310</v>
+      </c>
+      <c r="AT14">
+        <v>17521</v>
+      </c>
+      <c r="AU14">
+        <v>14627</v>
+      </c>
+      <c r="AV14">
+        <v>18215</v>
+      </c>
+      <c r="AW14">
+        <v>17562</v>
+      </c>
+      <c r="AX14">
+        <v>19015</v>
+      </c>
+      <c r="AY14">
+        <v>23059</v>
+      </c>
+      <c r="AZ14">
+        <v>22821</v>
+      </c>
+      <c r="BA14">
+        <v>24891</v>
+      </c>
+      <c r="BB14">
+        <v>22046</v>
+      </c>
+      <c r="BC14">
+        <v>21339</v>
+      </c>
+      <c r="BD14">
+        <v>18338</v>
+      </c>
+      <c r="BE14">
+        <v>15654</v>
+      </c>
+      <c r="BF14">
+        <v>14019</v>
+      </c>
+      <c r="BG14">
+        <v>17987</v>
+      </c>
+      <c r="BH14">
+        <v>17954</v>
+      </c>
+      <c r="BI14">
+        <v>19699</v>
+      </c>
+      <c r="BJ14">
+        <v>23529</v>
+      </c>
+      <c r="BK14">
+        <v>26054</v>
+      </c>
+      <c r="BL14">
+        <v>25084</v>
+      </c>
+      <c r="BM14">
+        <v>27031</v>
+      </c>
+      <c r="BN14">
+        <v>28853</v>
+      </c>
+      <c r="BO14">
+        <v>25968</v>
+      </c>
+      <c r="BP14">
+        <v>23347</v>
+      </c>
+      <c r="BQ14">
+        <v>23072</v>
+      </c>
+      <c r="BR14">
+        <v>20824</v>
+      </c>
+      <c r="BS14">
+        <v>23230</v>
+      </c>
+      <c r="BT14">
+        <v>21881</v>
+      </c>
+      <c r="BU14">
+        <v>20096</v>
+      </c>
+      <c r="BV14">
+        <v>27549</v>
+      </c>
+      <c r="BW14">
+        <v>30980</v>
+      </c>
+      <c r="BX14">
+        <v>31962</v>
+      </c>
+      <c r="BY14">
+        <v>34069</v>
+      </c>
+      <c r="BZ14">
+        <v>37206</v>
+      </c>
+      <c r="CA14">
+        <v>29992</v>
+      </c>
+      <c r="CB14">
+        <v>28567</v>
+      </c>
+      <c r="CC14">
+        <v>30817</v>
+      </c>
+      <c r="CD14">
+        <v>25843</v>
+      </c>
+      <c r="CE14">
+        <v>31071</v>
+      </c>
+      <c r="CF14">
+        <v>25447</v>
+      </c>
+      <c r="CG14">
+        <v>20420</v>
+      </c>
+      <c r="CH14">
+        <v>32001</v>
+      </c>
+      <c r="CI14">
+        <v>37170</v>
+      </c>
+      <c r="CJ14">
+        <v>39244</v>
+      </c>
+      <c r="CK14">
+        <v>36691</v>
+      </c>
+      <c r="CL14">
+        <v>43682</v>
+      </c>
+      <c r="CM14">
+        <v>37815</v>
+      </c>
+      <c r="CN14">
+        <v>35649</v>
+      </c>
+      <c r="CO14">
+        <v>40861</v>
+      </c>
+      <c r="CP14">
+        <v>32676</v>
+      </c>
+      <c r="CQ14">
+        <v>40363</v>
+      </c>
+      <c r="CR14">
+        <v>31796</v>
+      </c>
+      <c r="CS14">
+        <v>33913</v>
+      </c>
+      <c r="CT14">
+        <v>30762</v>
+      </c>
+      <c r="CU14">
+        <v>36993</v>
+      </c>
+      <c r="CV14">
+        <v>43074</v>
+      </c>
+      <c r="CW14">
+        <v>41545</v>
+      </c>
+      <c r="CX14">
+        <v>42751</v>
+      </c>
+      <c r="CY14">
+        <v>41273</v>
+      </c>
+      <c r="CZ14">
+        <v>38081</v>
+      </c>
+      <c r="DA14">
+        <v>38203</v>
+      </c>
+      <c r="DB14">
+        <v>42173</v>
+      </c>
+      <c r="DC14">
+        <v>36948</v>
+      </c>
+      <c r="DD14">
+        <v>35808</v>
+      </c>
+      <c r="DE14">
+        <v>38811</v>
+      </c>
+    </row>
+    <row r="15" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>8386</v>
+      </c>
+      <c r="C15">
+        <v>9286</v>
+      </c>
+      <c r="D15">
+        <v>9778</v>
+      </c>
+      <c r="E15">
+        <v>10951</v>
+      </c>
+      <c r="F15">
+        <v>11786</v>
+      </c>
+      <c r="G15">
+        <v>10558</v>
+      </c>
+      <c r="H15">
+        <v>10756</v>
+      </c>
+      <c r="I15">
+        <v>9269</v>
+      </c>
+      <c r="J15">
+        <v>8690</v>
+      </c>
+      <c r="K15">
+        <v>10397</v>
+      </c>
+      <c r="L15">
+        <v>8754</v>
+      </c>
+      <c r="M15">
+        <v>10282</v>
+      </c>
+      <c r="N15">
+        <v>17977</v>
+      </c>
+      <c r="O15">
+        <v>22094</v>
+      </c>
+      <c r="P15">
+        <v>21607</v>
+      </c>
+      <c r="Q15">
+        <v>18537</v>
+      </c>
+      <c r="R15">
+        <v>18907</v>
+      </c>
+      <c r="S15">
+        <v>15292</v>
+      </c>
+      <c r="T15">
+        <v>15574</v>
+      </c>
+      <c r="U15">
+        <v>15392</v>
+      </c>
+      <c r="V15">
+        <v>13126</v>
+      </c>
+      <c r="W15">
+        <v>13513</v>
+      </c>
+      <c r="X15">
+        <v>10668</v>
+      </c>
+      <c r="Y15">
+        <v>11414</v>
+      </c>
+      <c r="Z15">
+        <v>21018</v>
+      </c>
+      <c r="AA15">
+        <v>26654</v>
+      </c>
+      <c r="AB15">
+        <v>38026</v>
+      </c>
+      <c r="AC15">
+        <v>30357</v>
+      </c>
+      <c r="AD15">
+        <v>30541</v>
+      </c>
+      <c r="AE15">
+        <v>26250</v>
+      </c>
+      <c r="AF15">
+        <v>24502</v>
+      </c>
+      <c r="AG15">
+        <v>24079</v>
+      </c>
+      <c r="AH15">
+        <v>22907</v>
+      </c>
+      <c r="AI15">
+        <v>23427</v>
+      </c>
+      <c r="AJ15">
+        <v>20125</v>
+      </c>
+      <c r="AK15">
+        <v>22093</v>
+      </c>
+      <c r="AL15">
+        <v>23368</v>
+      </c>
+      <c r="AM15">
+        <v>27678</v>
+      </c>
+      <c r="AN15">
+        <v>30405</v>
+      </c>
+      <c r="AO15">
+        <v>27825</v>
+      </c>
+      <c r="AP15">
+        <v>31664</v>
+      </c>
+      <c r="AQ15">
+        <v>31203</v>
+      </c>
+      <c r="AR15">
+        <v>25082</v>
+      </c>
+      <c r="AS15">
+        <v>28609</v>
+      </c>
+      <c r="AT15">
+        <v>25840</v>
+      </c>
+      <c r="AU15">
+        <v>22219</v>
+      </c>
+      <c r="AV15">
+        <v>27929</v>
+      </c>
+      <c r="AW15">
+        <v>27323</v>
+      </c>
+      <c r="AX15">
+        <v>26606</v>
+      </c>
+      <c r="AY15">
+        <v>30786</v>
+      </c>
+      <c r="AZ15">
+        <v>31529</v>
+      </c>
+      <c r="BA15">
+        <v>32809</v>
+      </c>
+      <c r="BB15">
+        <v>29818</v>
+      </c>
+      <c r="BC15">
+        <v>28857</v>
+      </c>
+      <c r="BD15">
+        <v>25924</v>
+      </c>
+      <c r="BE15">
+        <v>23330</v>
+      </c>
+      <c r="BF15">
+        <v>22071</v>
+      </c>
+      <c r="BG15">
+        <v>29566</v>
+      </c>
+      <c r="BH15">
+        <v>27248</v>
+      </c>
+      <c r="BI15">
+        <v>28290</v>
+      </c>
+      <c r="BJ15">
+        <v>32840</v>
+      </c>
+      <c r="BK15">
+        <v>35416</v>
+      </c>
+      <c r="BL15">
+        <v>33021</v>
+      </c>
+      <c r="BM15">
+        <v>35080</v>
+      </c>
+      <c r="BN15">
+        <v>37030</v>
+      </c>
+      <c r="BO15">
+        <v>33497</v>
+      </c>
+      <c r="BP15">
+        <v>31947</v>
+      </c>
+      <c r="BQ15">
+        <v>31515</v>
+      </c>
+      <c r="BR15">
+        <v>28626</v>
+      </c>
+      <c r="BS15">
+        <v>32197</v>
+      </c>
+      <c r="BT15">
+        <v>28561</v>
+      </c>
+      <c r="BU15">
+        <v>27748</v>
+      </c>
+      <c r="BV15">
+        <v>37559</v>
+      </c>
+      <c r="BW15">
+        <v>40620</v>
+      </c>
+      <c r="BX15">
+        <v>40759</v>
+      </c>
+      <c r="BY15">
+        <v>42712</v>
+      </c>
+      <c r="BZ15">
+        <v>45571</v>
+      </c>
+      <c r="CA15">
+        <v>38008</v>
+      </c>
+      <c r="CB15">
+        <v>37725</v>
+      </c>
+      <c r="CC15">
+        <v>40091</v>
+      </c>
+      <c r="CD15">
+        <v>33646</v>
+      </c>
+      <c r="CE15">
+        <v>40011</v>
+      </c>
+      <c r="CF15">
+        <v>33491</v>
+      </c>
+      <c r="CG15">
+        <v>30226</v>
+      </c>
+      <c r="CH15">
+        <v>45370</v>
+      </c>
+      <c r="CI15">
+        <v>50127</v>
+      </c>
+      <c r="CJ15">
+        <v>52695</v>
+      </c>
+      <c r="CK15">
+        <v>48632</v>
+      </c>
+      <c r="CL15">
+        <v>57235</v>
+      </c>
+      <c r="CM15">
+        <v>50188</v>
+      </c>
+      <c r="CN15">
+        <v>46903</v>
+      </c>
+      <c r="CO15">
+        <v>53344</v>
+      </c>
+      <c r="CP15">
+        <v>43531</v>
+      </c>
+      <c r="CQ15">
+        <v>52813</v>
+      </c>
+      <c r="CR15">
+        <v>42279</v>
+      </c>
+      <c r="CS15">
+        <v>45561</v>
+      </c>
+      <c r="CT15">
+        <v>43904</v>
+      </c>
+      <c r="CU15">
+        <v>50103</v>
+      </c>
+      <c r="CV15">
+        <v>57366</v>
+      </c>
+      <c r="CW15">
+        <v>54398</v>
+      </c>
+      <c r="CX15">
+        <v>57157</v>
+      </c>
+      <c r="CY15">
+        <v>55907</v>
+      </c>
+      <c r="CZ15">
+        <v>52387</v>
+      </c>
+      <c r="DA15">
+        <v>52515</v>
+      </c>
+      <c r="DB15">
+        <v>57675</v>
+      </c>
+      <c r="DC15">
+        <v>50414</v>
+      </c>
+      <c r="DD15">
+        <v>48692</v>
+      </c>
+      <c r="DE15">
+        <v>52878</v>
+      </c>
+    </row>
+    <row r="16" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>39870</v>
+      </c>
+      <c r="C16">
+        <v>47737</v>
+      </c>
+      <c r="D16">
+        <v>50102</v>
+      </c>
+      <c r="E16">
+        <v>57091</v>
+      </c>
+      <c r="F16">
+        <v>63253</v>
+      </c>
+      <c r="G16">
+        <v>53113</v>
+      </c>
+      <c r="H16">
+        <v>56627</v>
+      </c>
+      <c r="I16">
+        <v>49343</v>
+      </c>
+      <c r="J16">
+        <v>47515</v>
+      </c>
+      <c r="K16">
+        <v>53420</v>
+      </c>
+      <c r="L16">
+        <v>44370</v>
+      </c>
+      <c r="M16">
+        <v>39628</v>
+      </c>
+      <c r="N16">
+        <v>75204</v>
+      </c>
+      <c r="O16">
+        <v>92750</v>
+      </c>
+      <c r="P16">
+        <v>93721</v>
+      </c>
+      <c r="Q16">
+        <v>83205</v>
+      </c>
+      <c r="R16">
+        <v>80341</v>
+      </c>
+      <c r="S16">
+        <v>64668</v>
+      </c>
+      <c r="T16">
+        <v>64579</v>
+      </c>
+      <c r="U16">
+        <v>68858</v>
+      </c>
+      <c r="V16">
+        <v>60055</v>
+      </c>
+      <c r="W16">
+        <v>63614</v>
+      </c>
+      <c r="X16">
+        <v>49506</v>
+      </c>
+      <c r="Y16">
+        <v>52090</v>
+      </c>
+      <c r="Z16">
+        <v>81574</v>
+      </c>
+      <c r="AA16">
+        <v>104912</v>
+      </c>
+      <c r="AB16">
+        <v>135460</v>
+      </c>
+      <c r="AC16">
+        <v>109438</v>
+      </c>
+      <c r="AD16">
+        <v>111594</v>
+      </c>
+      <c r="AE16">
+        <v>100004</v>
+      </c>
+      <c r="AF16">
+        <v>95084</v>
+      </c>
+      <c r="AG16">
+        <v>96515</v>
+      </c>
+      <c r="AH16">
+        <v>95434</v>
+      </c>
+      <c r="AI16">
+        <v>95896</v>
+      </c>
+      <c r="AJ16">
+        <v>84192</v>
+      </c>
+      <c r="AK16">
+        <v>86941</v>
+      </c>
+      <c r="AL16">
+        <v>94954</v>
+      </c>
+      <c r="AM16">
+        <v>115795</v>
+      </c>
+      <c r="AN16">
+        <v>135068</v>
+      </c>
+      <c r="AO16">
+        <v>121920</v>
+      </c>
+      <c r="AP16">
+        <v>134324</v>
+      </c>
+      <c r="AQ16">
+        <v>121467</v>
+      </c>
+      <c r="AR16">
+        <v>99584</v>
+      </c>
+      <c r="AS16">
+        <v>120304</v>
+      </c>
+      <c r="AT16">
+        <v>108836</v>
+      </c>
+      <c r="AU16">
+        <v>91231</v>
+      </c>
+      <c r="AV16">
+        <v>106494</v>
+      </c>
+      <c r="AW16">
+        <v>99807</v>
+      </c>
+      <c r="AX16">
+        <v>109751</v>
+      </c>
+      <c r="AY16">
+        <v>127248</v>
+      </c>
+      <c r="AZ16">
+        <v>129682</v>
+      </c>
+      <c r="BA16">
+        <v>135260</v>
+      </c>
+      <c r="BB16">
+        <v>119852</v>
+      </c>
+      <c r="BC16">
+        <v>121315</v>
+      </c>
+      <c r="BD16">
+        <v>110146</v>
+      </c>
+      <c r="BE16">
+        <v>97197</v>
+      </c>
+      <c r="BF16">
+        <v>91279</v>
+      </c>
+      <c r="BG16">
+        <v>111932</v>
+      </c>
+      <c r="BH16">
+        <v>104056</v>
+      </c>
+      <c r="BI16">
+        <v>109580</v>
+      </c>
+      <c r="BJ16">
+        <v>129223</v>
+      </c>
+      <c r="BK16">
+        <v>140462</v>
+      </c>
+      <c r="BL16">
+        <v>137989</v>
+      </c>
+      <c r="BM16">
+        <v>145894</v>
+      </c>
+      <c r="BN16">
+        <v>150913</v>
+      </c>
+      <c r="BO16">
+        <v>132145</v>
+      </c>
+      <c r="BP16">
+        <v>123628</v>
+      </c>
+      <c r="BQ16">
+        <v>121714</v>
+      </c>
+      <c r="BR16">
+        <v>118910</v>
+      </c>
+      <c r="BS16">
+        <v>129114</v>
+      </c>
+      <c r="BT16">
+        <v>114703</v>
+      </c>
+      <c r="BU16">
+        <v>110435</v>
+      </c>
+      <c r="BV16">
+        <v>138907</v>
+      </c>
+      <c r="BW16">
+        <v>154757</v>
+      </c>
+      <c r="BX16">
+        <v>156324</v>
+      </c>
+      <c r="BY16">
+        <v>164052</v>
+      </c>
+      <c r="BZ16">
+        <v>175070</v>
+      </c>
+      <c r="CA16">
+        <v>143285</v>
+      </c>
+      <c r="CB16">
+        <v>139511</v>
+      </c>
+      <c r="CC16">
+        <v>153604</v>
+      </c>
+      <c r="CD16">
+        <v>133226</v>
+      </c>
+      <c r="CE16">
+        <v>155310</v>
+      </c>
+      <c r="CF16">
+        <v>125118</v>
+      </c>
+      <c r="CG16">
+        <v>109738</v>
+      </c>
+      <c r="CH16">
+        <v>154833</v>
+      </c>
+      <c r="CI16">
+        <v>178610</v>
+      </c>
+      <c r="CJ16">
+        <v>190171</v>
+      </c>
+      <c r="CK16">
+        <v>174333</v>
+      </c>
+      <c r="CL16">
+        <v>203064</v>
+      </c>
+      <c r="CM16">
+        <v>173103</v>
+      </c>
+      <c r="CN16">
+        <v>166237</v>
+      </c>
+      <c r="CO16">
+        <v>189347</v>
+      </c>
+      <c r="CP16">
+        <v>156392</v>
+      </c>
+      <c r="CQ16">
+        <v>191452</v>
+      </c>
+      <c r="CR16">
+        <v>149514</v>
+      </c>
+      <c r="CS16">
+        <v>164213</v>
+      </c>
+      <c r="CT16">
+        <v>146020</v>
+      </c>
+      <c r="CU16">
+        <v>170751</v>
+      </c>
+      <c r="CV16">
+        <v>200633</v>
+      </c>
+      <c r="CW16">
+        <v>187203</v>
+      </c>
+      <c r="CX16">
+        <v>192043</v>
+      </c>
+      <c r="CY16">
+        <v>184328</v>
+      </c>
+      <c r="CZ16">
+        <v>175191</v>
+      </c>
+      <c r="DA16">
+        <v>173669</v>
+      </c>
+      <c r="DB16">
+        <v>195671</v>
+      </c>
+      <c r="DC16">
+        <v>169028</v>
+      </c>
+      <c r="DD16">
+        <v>165078</v>
+      </c>
+      <c r="DE16">
+        <v>179580</v>
+      </c>
+    </row>
+    <row r="17" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>37127</v>
+      </c>
+      <c r="C17">
+        <v>43537</v>
+      </c>
+      <c r="D17">
+        <v>46071</v>
+      </c>
+      <c r="E17">
+        <v>49991</v>
+      </c>
+      <c r="F17">
+        <v>54838</v>
+      </c>
+      <c r="G17">
+        <v>45344</v>
+      </c>
+      <c r="H17">
+        <v>47243</v>
+      </c>
+      <c r="I17">
+        <v>42475</v>
+      </c>
+      <c r="J17">
+        <v>40122</v>
+      </c>
+      <c r="K17">
+        <v>46543</v>
+      </c>
+      <c r="L17">
+        <v>38467</v>
+      </c>
+      <c r="M17">
+        <v>34291</v>
+      </c>
+      <c r="N17">
+        <v>85098</v>
+      </c>
+      <c r="O17">
+        <v>106494</v>
+      </c>
+      <c r="P17">
+        <v>106899</v>
+      </c>
+      <c r="Q17">
+        <v>96298</v>
+      </c>
+      <c r="R17">
+        <v>89398</v>
+      </c>
+      <c r="S17">
+        <v>69681</v>
+      </c>
+      <c r="T17">
+        <v>69401</v>
+      </c>
+      <c r="U17">
+        <v>70659</v>
+      </c>
+      <c r="V17">
+        <v>61437</v>
+      </c>
+      <c r="W17">
+        <v>64357</v>
+      </c>
+      <c r="X17">
+        <v>49731</v>
+      </c>
+      <c r="Y17">
+        <v>51653</v>
+      </c>
+      <c r="Z17">
+        <v>96976</v>
+      </c>
+      <c r="AA17">
+        <v>129056</v>
+      </c>
+      <c r="AB17">
+        <v>168255</v>
+      </c>
+      <c r="AC17">
+        <v>136972</v>
+      </c>
+      <c r="AD17">
+        <v>144074</v>
+      </c>
+      <c r="AE17">
+        <v>123294</v>
+      </c>
+      <c r="AF17">
+        <v>114359</v>
+      </c>
+      <c r="AG17">
+        <v>117166</v>
+      </c>
+      <c r="AH17">
+        <v>118199</v>
+      </c>
+      <c r="AI17">
+        <v>113579</v>
+      </c>
+      <c r="AJ17">
+        <v>98051</v>
+      </c>
+      <c r="AK17">
+        <v>104312</v>
+      </c>
+      <c r="AL17">
+        <v>124999</v>
+      </c>
+      <c r="AM17">
+        <v>157662</v>
+      </c>
+      <c r="AN17">
+        <v>175567</v>
+      </c>
+      <c r="AO17">
+        <v>160097</v>
+      </c>
+      <c r="AP17">
+        <v>175518</v>
+      </c>
+      <c r="AQ17">
+        <v>159161</v>
+      </c>
+      <c r="AR17">
+        <v>129188</v>
+      </c>
+      <c r="AS17">
+        <v>153172</v>
+      </c>
+      <c r="AT17">
+        <v>139812</v>
+      </c>
+      <c r="AU17">
+        <v>115812</v>
+      </c>
+      <c r="AV17">
+        <v>138096</v>
+      </c>
+      <c r="AW17">
+        <v>127632</v>
+      </c>
+      <c r="AX17">
+        <v>180617</v>
+      </c>
+      <c r="AY17">
+        <v>213207</v>
+      </c>
+      <c r="AZ17">
+        <v>211662</v>
+      </c>
+      <c r="BA17">
+        <v>223181</v>
+      </c>
+      <c r="BB17">
+        <v>196653</v>
+      </c>
+      <c r="BC17">
+        <v>198580</v>
+      </c>
+      <c r="BD17">
+        <v>178584</v>
+      </c>
+      <c r="BE17">
+        <v>153005</v>
+      </c>
+      <c r="BF17">
+        <v>131162</v>
+      </c>
+      <c r="BG17">
+        <v>155598</v>
+      </c>
+      <c r="BH17">
+        <v>147990</v>
+      </c>
+      <c r="BI17">
+        <v>155621</v>
+      </c>
+      <c r="BJ17">
+        <v>242367</v>
+      </c>
+      <c r="BK17">
+        <v>275205</v>
+      </c>
+      <c r="BL17">
+        <v>265074</v>
+      </c>
+      <c r="BM17">
+        <v>282283</v>
+      </c>
+      <c r="BN17">
+        <v>293289</v>
+      </c>
+      <c r="BO17">
+        <v>253086</v>
+      </c>
+      <c r="BP17">
+        <v>236204</v>
+      </c>
+      <c r="BQ17">
+        <v>232869</v>
+      </c>
+      <c r="BR17">
+        <v>222217</v>
+      </c>
+      <c r="BS17">
+        <v>233064</v>
+      </c>
+      <c r="BT17">
+        <v>199933</v>
+      </c>
+      <c r="BU17">
+        <v>189541</v>
+      </c>
+      <c r="BV17">
+        <v>310904</v>
+      </c>
+      <c r="BW17">
+        <v>349928</v>
+      </c>
+      <c r="BX17">
+        <v>362271</v>
+      </c>
+      <c r="BY17">
+        <v>372932</v>
+      </c>
+      <c r="BZ17">
+        <v>393999</v>
+      </c>
+      <c r="CA17">
+        <v>313772</v>
+      </c>
+      <c r="CB17">
+        <v>293817</v>
+      </c>
+      <c r="CC17">
+        <v>326883</v>
+      </c>
+      <c r="CD17">
+        <v>277823</v>
+      </c>
+      <c r="CE17">
+        <v>324636</v>
+      </c>
+      <c r="CF17">
+        <v>257642</v>
+      </c>
+      <c r="CG17">
+        <v>211620</v>
+      </c>
+      <c r="CH17">
+        <v>393715</v>
+      </c>
+      <c r="CI17">
+        <v>462162</v>
+      </c>
+      <c r="CJ17">
+        <v>491323</v>
+      </c>
+      <c r="CK17">
+        <v>457384</v>
+      </c>
+      <c r="CL17">
+        <v>529209</v>
+      </c>
+      <c r="CM17">
+        <v>439431</v>
+      </c>
+      <c r="CN17">
+        <v>407723</v>
+      </c>
+      <c r="CO17">
+        <v>472217</v>
+      </c>
+      <c r="CP17">
+        <v>379666</v>
+      </c>
+      <c r="CQ17">
+        <v>470452</v>
+      </c>
+      <c r="CR17">
+        <v>359266</v>
+      </c>
+      <c r="CS17">
+        <v>388668</v>
+      </c>
+      <c r="CT17">
+        <v>401875</v>
+      </c>
+      <c r="CU17">
+        <v>487184</v>
+      </c>
+      <c r="CV17">
+        <v>561024</v>
+      </c>
+      <c r="CW17">
+        <v>541139</v>
+      </c>
+      <c r="CX17">
+        <v>544100</v>
+      </c>
+      <c r="CY17">
+        <v>524605</v>
+      </c>
+      <c r="CZ17">
+        <v>484247</v>
+      </c>
+      <c r="DA17">
+        <v>481435</v>
+      </c>
+      <c r="DB17">
+        <v>532816</v>
+      </c>
+      <c r="DC17">
+        <v>453323</v>
+      </c>
+      <c r="DD17">
+        <v>446771</v>
+      </c>
+      <c r="DE17">
+        <v>483862</v>
+      </c>
+    </row>
+    <row r="18" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4423</v>
+      </c>
+      <c r="C18">
+        <v>5035</v>
+      </c>
+      <c r="D18">
+        <v>5577</v>
+      </c>
+      <c r="E18">
+        <v>6037</v>
+      </c>
+      <c r="F18">
+        <v>6978</v>
+      </c>
+      <c r="G18">
+        <v>6007</v>
+      </c>
+      <c r="H18">
+        <v>5996</v>
+      </c>
+      <c r="I18">
+        <v>5460</v>
+      </c>
+      <c r="J18">
+        <v>4889</v>
+      </c>
+      <c r="K18">
+        <v>5480</v>
+      </c>
+      <c r="L18">
+        <v>4868</v>
+      </c>
+      <c r="M18">
+        <v>4287</v>
+      </c>
+      <c r="N18">
+        <v>8578</v>
+      </c>
+      <c r="O18">
+        <v>11077</v>
+      </c>
+      <c r="P18">
+        <v>10856</v>
+      </c>
+      <c r="Q18">
+        <v>9723</v>
+      </c>
+      <c r="R18">
+        <v>10238</v>
+      </c>
+      <c r="S18">
+        <v>8569</v>
+      </c>
+      <c r="T18">
+        <v>7957</v>
+      </c>
+      <c r="U18">
+        <v>7835</v>
+      </c>
+      <c r="V18">
+        <v>6557</v>
+      </c>
+      <c r="W18">
+        <v>7066</v>
+      </c>
+      <c r="X18">
+        <v>5674</v>
+      </c>
+      <c r="Y18">
+        <v>6038</v>
+      </c>
+      <c r="Z18">
+        <v>9350</v>
+      </c>
+      <c r="AA18">
+        <v>12485</v>
+      </c>
+      <c r="AB18">
+        <v>16058</v>
+      </c>
+      <c r="AC18">
+        <v>13458</v>
+      </c>
+      <c r="AD18">
+        <v>14789</v>
+      </c>
+      <c r="AE18">
+        <v>13034</v>
+      </c>
+      <c r="AF18">
+        <v>11425</v>
+      </c>
+      <c r="AG18">
+        <v>11577</v>
+      </c>
+      <c r="AH18">
+        <v>11043</v>
+      </c>
+      <c r="AI18">
+        <v>11063</v>
+      </c>
+      <c r="AJ18">
+        <v>9840</v>
+      </c>
+      <c r="AK18">
+        <v>10358</v>
+      </c>
+      <c r="AL18">
+        <v>11355</v>
+      </c>
+      <c r="AM18">
+        <v>13746</v>
+      </c>
+      <c r="AN18">
+        <v>15871</v>
+      </c>
+      <c r="AO18">
+        <v>15409</v>
+      </c>
+      <c r="AP18">
+        <v>16877</v>
+      </c>
+      <c r="AQ18">
+        <v>16515</v>
+      </c>
+      <c r="AR18">
+        <v>12868</v>
+      </c>
+      <c r="AS18">
+        <v>15052</v>
+      </c>
+      <c r="AT18">
+        <v>13472</v>
+      </c>
+      <c r="AU18">
+        <v>10696</v>
+      </c>
+      <c r="AV18">
+        <v>13117</v>
+      </c>
+      <c r="AW18">
+        <v>12808</v>
+      </c>
+      <c r="AX18">
+        <v>15082</v>
+      </c>
+      <c r="AY18">
+        <v>17772</v>
+      </c>
+      <c r="AZ18">
+        <v>18940</v>
+      </c>
+      <c r="BA18">
+        <v>20554</v>
+      </c>
+      <c r="BB18">
+        <v>19087</v>
+      </c>
+      <c r="BC18">
+        <v>19564</v>
+      </c>
+      <c r="BD18">
+        <v>17519</v>
+      </c>
+      <c r="BE18">
+        <v>14584</v>
+      </c>
+      <c r="BF18">
+        <v>12346</v>
+      </c>
+      <c r="BG18">
+        <v>13977</v>
+      </c>
+      <c r="BH18">
+        <v>13216</v>
+      </c>
+      <c r="BI18">
+        <v>13806</v>
+      </c>
+      <c r="BJ18">
+        <v>15723</v>
+      </c>
+      <c r="BK18">
+        <v>17883</v>
+      </c>
+      <c r="BL18">
+        <v>17758</v>
+      </c>
+      <c r="BM18">
+        <v>19502</v>
+      </c>
+      <c r="BN18">
+        <v>21046</v>
+      </c>
+      <c r="BO18">
+        <v>19550</v>
+      </c>
+      <c r="BP18">
+        <v>17515</v>
+      </c>
+      <c r="BQ18">
+        <v>17827</v>
+      </c>
+      <c r="BR18">
+        <v>16950</v>
+      </c>
+      <c r="BS18">
+        <v>18053</v>
+      </c>
+      <c r="BT18">
+        <v>16193</v>
+      </c>
+      <c r="BU18">
+        <v>16095</v>
+      </c>
+      <c r="BV18">
+        <v>16737</v>
+      </c>
+      <c r="BW18">
+        <v>18788</v>
+      </c>
+      <c r="BX18">
+        <v>19423</v>
+      </c>
+      <c r="BY18">
+        <v>20801</v>
+      </c>
+      <c r="BZ18">
+        <v>22981</v>
+      </c>
+      <c r="CA18">
+        <v>19067</v>
+      </c>
+      <c r="CB18">
+        <v>18619</v>
+      </c>
+      <c r="CC18">
+        <v>19970</v>
+      </c>
+      <c r="CD18">
+        <v>16760</v>
+      </c>
+      <c r="CE18">
+        <v>19229</v>
+      </c>
+      <c r="CF18">
+        <v>16220</v>
+      </c>
+      <c r="CG18">
+        <v>13917</v>
+      </c>
+      <c r="CH18">
+        <v>18760</v>
+      </c>
+      <c r="CI18">
+        <v>21785</v>
+      </c>
+      <c r="CJ18">
+        <v>23385</v>
+      </c>
+      <c r="CK18">
+        <v>22427</v>
+      </c>
+      <c r="CL18">
+        <v>27385</v>
+      </c>
+      <c r="CM18">
+        <v>23654</v>
+      </c>
+      <c r="CN18">
+        <v>21812</v>
+      </c>
+      <c r="CO18">
+        <v>24668</v>
+      </c>
+      <c r="CP18">
+        <v>19581</v>
+      </c>
+      <c r="CQ18">
+        <v>23707</v>
+      </c>
+      <c r="CR18">
+        <v>18125</v>
+      </c>
+      <c r="CS18">
+        <v>20781</v>
+      </c>
+      <c r="CT18">
+        <v>18439</v>
+      </c>
+      <c r="CU18">
+        <v>21901</v>
+      </c>
+      <c r="CV18">
+        <v>25350</v>
+      </c>
+      <c r="CW18">
+        <v>24940</v>
+      </c>
+      <c r="CX18">
+        <v>25257</v>
+      </c>
+      <c r="CY18">
+        <v>25419</v>
+      </c>
+      <c r="CZ18">
+        <v>24238</v>
+      </c>
+      <c r="DA18">
+        <v>22905</v>
+      </c>
+      <c r="DB18">
+        <v>24844</v>
+      </c>
+      <c r="DC18">
+        <v>21215</v>
+      </c>
+      <c r="DD18">
+        <v>20621</v>
+      </c>
+      <c r="DE18">
+        <v>22464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>575</v>
+      </c>
+      <c r="C19">
+        <v>755</v>
+      </c>
+      <c r="D19">
+        <v>810</v>
+      </c>
+      <c r="E19">
+        <v>1004</v>
+      </c>
+      <c r="F19">
+        <v>1002</v>
+      </c>
+      <c r="G19">
+        <v>874</v>
+      </c>
+      <c r="H19">
+        <v>910</v>
+      </c>
+      <c r="I19">
+        <v>771</v>
+      </c>
+      <c r="J19">
+        <v>743</v>
+      </c>
+      <c r="K19">
+        <v>936</v>
+      </c>
+      <c r="L19">
+        <v>892</v>
+      </c>
+      <c r="M19">
+        <v>780</v>
+      </c>
+      <c r="N19">
+        <v>1588</v>
+      </c>
+      <c r="O19">
+        <v>2063</v>
+      </c>
+      <c r="P19">
+        <v>2261</v>
+      </c>
+      <c r="Q19">
+        <v>1942</v>
+      </c>
+      <c r="R19">
+        <v>1779</v>
+      </c>
+      <c r="S19">
+        <v>1446</v>
+      </c>
+      <c r="T19">
+        <v>1603</v>
+      </c>
+      <c r="U19">
+        <v>1502</v>
+      </c>
+      <c r="V19">
+        <v>1223</v>
+      </c>
+      <c r="W19">
+        <v>1130</v>
+      </c>
+      <c r="X19">
+        <v>895</v>
+      </c>
+      <c r="Y19">
+        <v>949</v>
+      </c>
+      <c r="Z19">
+        <v>2276</v>
+      </c>
+      <c r="AA19">
+        <v>2845</v>
+      </c>
+      <c r="AB19">
+        <v>3746</v>
+      </c>
+      <c r="AC19">
+        <v>2831</v>
+      </c>
+      <c r="AD19">
+        <v>2881</v>
+      </c>
+      <c r="AE19">
+        <v>2232</v>
+      </c>
+      <c r="AF19">
+        <v>2200</v>
+      </c>
+      <c r="AG19">
+        <v>2128</v>
+      </c>
+      <c r="AH19">
+        <v>2098</v>
+      </c>
+      <c r="AI19">
+        <v>2146</v>
+      </c>
+      <c r="AJ19">
+        <v>1787</v>
+      </c>
+      <c r="AK19">
+        <v>1830</v>
+      </c>
+      <c r="AL19">
+        <v>2717</v>
+      </c>
+      <c r="AM19">
+        <v>3368</v>
+      </c>
+      <c r="AN19">
+        <v>3819</v>
+      </c>
+      <c r="AO19">
+        <v>3526</v>
+      </c>
+      <c r="AP19">
+        <v>3979</v>
+      </c>
+      <c r="AQ19">
+        <v>3587</v>
+      </c>
+      <c r="AR19">
+        <v>2949</v>
+      </c>
+      <c r="AS19">
+        <v>3499</v>
+      </c>
+      <c r="AT19">
+        <v>2999</v>
+      </c>
+      <c r="AU19">
+        <v>2489</v>
+      </c>
+      <c r="AV19">
+        <v>3077</v>
+      </c>
+      <c r="AW19">
+        <v>2733</v>
+      </c>
+      <c r="AX19">
+        <v>3816</v>
+      </c>
+      <c r="AY19">
+        <v>4492</v>
+      </c>
+      <c r="AZ19">
+        <v>4229</v>
+      </c>
+      <c r="BA19">
+        <v>4349</v>
+      </c>
+      <c r="BB19">
+        <v>3827</v>
+      </c>
+      <c r="BC19">
+        <v>3683</v>
+      </c>
+      <c r="BD19">
+        <v>3213</v>
+      </c>
+      <c r="BE19">
+        <v>2472</v>
+      </c>
+      <c r="BF19">
+        <v>1932</v>
+      </c>
+      <c r="BG19">
+        <v>3073</v>
+      </c>
+      <c r="BH19">
+        <v>3095</v>
+      </c>
+      <c r="BI19">
+        <v>3031</v>
+      </c>
+      <c r="BJ19">
+        <v>4788</v>
+      </c>
+      <c r="BK19">
+        <v>5384</v>
+      </c>
+      <c r="BL19">
+        <v>5099</v>
+      </c>
+      <c r="BM19">
+        <v>5379</v>
+      </c>
+      <c r="BN19">
+        <v>5755</v>
+      </c>
+      <c r="BO19">
+        <v>4851</v>
+      </c>
+      <c r="BP19">
+        <v>4648</v>
+      </c>
+      <c r="BQ19">
+        <v>4606</v>
+      </c>
+      <c r="BR19">
+        <v>4199</v>
+      </c>
+      <c r="BS19">
+        <v>4626</v>
+      </c>
+      <c r="BT19">
+        <v>4012</v>
+      </c>
+      <c r="BU19">
+        <v>3955</v>
+      </c>
+      <c r="BV19">
+        <v>5112</v>
+      </c>
+      <c r="BW19">
+        <v>5486</v>
+      </c>
+      <c r="BX19">
+        <v>5865</v>
+      </c>
+      <c r="BY19">
+        <v>6099</v>
+      </c>
+      <c r="BZ19">
+        <v>6921</v>
+      </c>
+      <c r="CA19">
+        <v>5956</v>
+      </c>
+      <c r="CB19">
+        <v>5303</v>
+      </c>
+      <c r="CC19">
+        <v>6208</v>
+      </c>
+      <c r="CD19">
+        <v>5173</v>
+      </c>
+      <c r="CE19">
+        <v>6078</v>
+      </c>
+      <c r="CF19">
+        <v>5029</v>
+      </c>
+      <c r="CG19">
+        <v>4186</v>
+      </c>
+      <c r="CH19">
+        <v>7188</v>
+      </c>
+      <c r="CI19">
+        <v>7733</v>
+      </c>
+      <c r="CJ19">
+        <v>8583</v>
+      </c>
+      <c r="CK19">
+        <v>7848</v>
+      </c>
+      <c r="CL19">
+        <v>9451</v>
+      </c>
+      <c r="CM19">
+        <v>7618</v>
+      </c>
+      <c r="CN19">
+        <v>7295</v>
+      </c>
+      <c r="CO19">
+        <v>7900</v>
+      </c>
+      <c r="CP19">
+        <v>6652</v>
+      </c>
+      <c r="CQ19">
+        <v>7851</v>
+      </c>
+      <c r="CR19">
+        <v>6120</v>
+      </c>
+      <c r="CS19">
+        <v>6345</v>
+      </c>
+      <c r="CT19">
+        <v>8428</v>
+      </c>
+      <c r="CU19">
+        <v>9958</v>
+      </c>
+      <c r="CV19">
+        <v>11625</v>
+      </c>
+      <c r="CW19">
+        <v>10965</v>
+      </c>
+      <c r="CX19">
+        <v>11377</v>
+      </c>
+      <c r="CY19">
+        <v>10770</v>
+      </c>
+      <c r="CZ19">
+        <v>9713</v>
+      </c>
+      <c r="DA19">
+        <v>8915</v>
+      </c>
+      <c r="DB19">
+        <v>9917</v>
+      </c>
+      <c r="DC19">
+        <v>8298</v>
+      </c>
+      <c r="DD19">
+        <v>7834</v>
+      </c>
+      <c r="DE19">
+        <v>7904</v>
+      </c>
+    </row>
+    <row r="20" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2233</v>
+      </c>
+      <c r="C20">
+        <v>2612</v>
+      </c>
+      <c r="D20">
+        <v>2822</v>
+      </c>
+      <c r="E20">
+        <v>3180</v>
+      </c>
+      <c r="F20">
+        <v>3804</v>
+      </c>
+      <c r="G20">
+        <v>2972</v>
+      </c>
+      <c r="H20">
+        <v>3492</v>
+      </c>
+      <c r="I20">
+        <v>3267</v>
+      </c>
+      <c r="J20">
+        <v>3080</v>
+      </c>
+      <c r="K20">
+        <v>3529</v>
+      </c>
+      <c r="L20">
+        <v>2933</v>
+      </c>
+      <c r="M20">
+        <v>2624</v>
+      </c>
+      <c r="N20">
+        <v>5002</v>
+      </c>
+      <c r="O20">
+        <v>6348</v>
+      </c>
+      <c r="P20">
+        <v>6218</v>
+      </c>
+      <c r="Q20">
+        <v>5537</v>
+      </c>
+      <c r="R20">
+        <v>5737</v>
+      </c>
+      <c r="S20">
+        <v>4575</v>
+      </c>
+      <c r="T20">
+        <v>4788</v>
+      </c>
+      <c r="U20">
+        <v>5037</v>
+      </c>
+      <c r="V20">
+        <v>4067</v>
+      </c>
+      <c r="W20">
+        <v>4303</v>
+      </c>
+      <c r="X20">
+        <v>3147</v>
+      </c>
+      <c r="Y20">
+        <v>3143</v>
+      </c>
+      <c r="Z20">
+        <v>5914</v>
+      </c>
+      <c r="AA20">
+        <v>7754</v>
+      </c>
+      <c r="AB20">
+        <v>10983</v>
+      </c>
+      <c r="AC20">
+        <v>8804</v>
+      </c>
+      <c r="AD20">
+        <v>8784</v>
+      </c>
+      <c r="AE20">
+        <v>7332</v>
+      </c>
+      <c r="AF20">
+        <v>7235</v>
+      </c>
+      <c r="AG20">
+        <v>7483</v>
+      </c>
+      <c r="AH20">
+        <v>7301</v>
+      </c>
+      <c r="AI20">
+        <v>7406</v>
+      </c>
+      <c r="AJ20">
+        <v>6006</v>
+      </c>
+      <c r="AK20">
+        <v>6104</v>
+      </c>
+      <c r="AL20">
+        <v>6798</v>
+      </c>
+      <c r="AM20">
+        <v>8351</v>
+      </c>
+      <c r="AN20">
+        <v>9700</v>
+      </c>
+      <c r="AO20">
+        <v>8933</v>
+      </c>
+      <c r="AP20">
+        <v>9927</v>
+      </c>
+      <c r="AQ20">
+        <v>9376</v>
+      </c>
+      <c r="AR20">
+        <v>7687</v>
+      </c>
+      <c r="AS20">
+        <v>8732</v>
+      </c>
+      <c r="AT20">
+        <v>8062</v>
+      </c>
+      <c r="AU20">
+        <v>6705</v>
+      </c>
+      <c r="AV20">
+        <v>8986</v>
+      </c>
+      <c r="AW20">
+        <v>7925</v>
+      </c>
+      <c r="AX20">
+        <v>6976</v>
+      </c>
+      <c r="AY20">
+        <v>8276</v>
+      </c>
+      <c r="AZ20">
+        <v>8351</v>
+      </c>
+      <c r="BA20">
+        <v>8337</v>
+      </c>
+      <c r="BB20">
+        <v>6891</v>
+      </c>
+      <c r="BC20">
+        <v>6353</v>
+      </c>
+      <c r="BD20">
+        <v>5350</v>
+      </c>
+      <c r="BE20">
+        <v>4380</v>
+      </c>
+      <c r="BF20">
+        <v>4089</v>
+      </c>
+      <c r="BG20">
+        <v>7767</v>
+      </c>
+      <c r="BH20">
+        <v>8404</v>
+      </c>
+      <c r="BI20">
+        <v>7929</v>
+      </c>
+      <c r="BJ20">
+        <v>10214</v>
+      </c>
+      <c r="BK20">
+        <v>11637</v>
+      </c>
+      <c r="BL20">
+        <v>10979</v>
+      </c>
+      <c r="BM20">
+        <v>11604</v>
+      </c>
+      <c r="BN20">
+        <v>12007</v>
+      </c>
+      <c r="BO20">
+        <v>10346</v>
+      </c>
+      <c r="BP20">
+        <v>11732</v>
+      </c>
+      <c r="BQ20">
+        <v>11910</v>
+      </c>
+      <c r="BR20">
+        <v>7586</v>
+      </c>
+      <c r="BS20">
+        <v>8339</v>
+      </c>
+      <c r="BT20">
+        <v>8386</v>
+      </c>
+      <c r="BU20">
+        <v>7363</v>
+      </c>
+      <c r="BV20">
+        <v>11942</v>
+      </c>
+      <c r="BW20">
+        <v>13692</v>
+      </c>
+      <c r="BX20">
+        <v>13900</v>
+      </c>
+      <c r="BY20">
+        <v>14723</v>
+      </c>
+      <c r="BZ20">
+        <v>16262</v>
+      </c>
+      <c r="CA20">
+        <v>12781</v>
+      </c>
+      <c r="CB20">
+        <v>12565</v>
+      </c>
+      <c r="CC20">
+        <v>14027</v>
+      </c>
+      <c r="CD20">
+        <v>11505</v>
+      </c>
+      <c r="CE20">
+        <v>13376</v>
+      </c>
+      <c r="CF20">
+        <v>11386</v>
+      </c>
+      <c r="CG20">
+        <v>8623</v>
+      </c>
+      <c r="CH20">
+        <v>15713</v>
+      </c>
+      <c r="CI20">
+        <v>18498</v>
+      </c>
+      <c r="CJ20">
+        <v>19371</v>
+      </c>
+      <c r="CK20">
+        <v>17911</v>
+      </c>
+      <c r="CL20">
+        <v>21549</v>
+      </c>
+      <c r="CM20">
+        <v>17898</v>
+      </c>
+      <c r="CN20">
+        <v>16501</v>
+      </c>
+      <c r="CO20">
+        <v>19406</v>
+      </c>
+      <c r="CP20">
+        <v>15814</v>
+      </c>
+      <c r="CQ20">
+        <v>19018</v>
+      </c>
+      <c r="CR20">
+        <v>14918</v>
+      </c>
+      <c r="CS20">
+        <v>15227</v>
+      </c>
+      <c r="CT20">
+        <v>15941</v>
+      </c>
+      <c r="CU20">
+        <v>19501</v>
+      </c>
+      <c r="CV20">
+        <v>22064</v>
+      </c>
+      <c r="CW20">
+        <v>21818</v>
+      </c>
+      <c r="CX20">
+        <v>22744</v>
+      </c>
+      <c r="CY20">
+        <v>21694</v>
+      </c>
+      <c r="CZ20">
+        <v>20250</v>
+      </c>
+      <c r="DA20">
+        <v>20014</v>
+      </c>
+      <c r="DB20">
+        <v>22364</v>
+      </c>
+      <c r="DC20">
+        <v>19420</v>
+      </c>
+      <c r="DD20">
+        <v>18274</v>
+      </c>
+      <c r="DE20">
+        <v>18989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>3943</v>
+      </c>
+      <c r="C21">
+        <v>6677</v>
+      </c>
+      <c r="D21">
+        <v>7298</v>
+      </c>
+      <c r="E21">
+        <v>8352</v>
+      </c>
+      <c r="F21">
+        <v>9344</v>
+      </c>
+      <c r="G21">
+        <v>6545</v>
+      </c>
+      <c r="H21">
+        <v>8964</v>
+      </c>
+      <c r="I21">
+        <v>7830</v>
+      </c>
+      <c r="J21">
+        <v>7047</v>
+      </c>
+      <c r="K21">
+        <v>8686</v>
+      </c>
+      <c r="L21">
+        <v>6038</v>
+      </c>
+      <c r="M21">
+        <v>4836</v>
+      </c>
+      <c r="N21">
+        <v>10184</v>
+      </c>
+      <c r="O21">
+        <v>15568</v>
+      </c>
+      <c r="P21">
+        <v>15859</v>
+      </c>
+      <c r="Q21">
+        <v>14811</v>
+      </c>
+      <c r="R21">
+        <v>15629</v>
+      </c>
+      <c r="S21">
+        <v>10714</v>
+      </c>
+      <c r="T21">
+        <v>13106</v>
+      </c>
+      <c r="U21">
+        <v>13555</v>
+      </c>
+      <c r="V21">
+        <v>10637</v>
+      </c>
+      <c r="W21">
+        <v>10537</v>
+      </c>
+      <c r="X21">
+        <v>7292</v>
+      </c>
+      <c r="Y21">
+        <v>5738</v>
+      </c>
+      <c r="Z21">
+        <v>12945</v>
+      </c>
+      <c r="AA21">
+        <v>20436</v>
+      </c>
+      <c r="AB21">
+        <v>23510</v>
+      </c>
+      <c r="AC21">
+        <v>19397</v>
+      </c>
+      <c r="AD21">
+        <v>20901</v>
+      </c>
+      <c r="AE21">
+        <v>15872</v>
+      </c>
+      <c r="AF21">
+        <v>18182</v>
+      </c>
+      <c r="AG21">
+        <v>19095</v>
+      </c>
+      <c r="AH21">
+        <v>17932</v>
+      </c>
+      <c r="AI21">
+        <v>17368</v>
+      </c>
+      <c r="AJ21">
+        <v>12072</v>
+      </c>
+      <c r="AK21">
+        <v>10815</v>
+      </c>
+      <c r="AL21">
+        <v>14386</v>
+      </c>
+      <c r="AM21">
+        <v>22826</v>
+      </c>
+      <c r="AN21">
+        <v>26643</v>
+      </c>
+      <c r="AO21">
+        <v>25864</v>
+      </c>
+      <c r="AP21">
+        <v>28099</v>
+      </c>
+      <c r="AQ21">
+        <v>25104</v>
+      </c>
+      <c r="AR21">
+        <v>22800</v>
+      </c>
+      <c r="AS21">
+        <v>27131</v>
+      </c>
+      <c r="AT21">
+        <v>23312</v>
+      </c>
+      <c r="AU21">
+        <v>17467</v>
+      </c>
+      <c r="AV21">
+        <v>21128</v>
+      </c>
+      <c r="AW21">
+        <v>16032</v>
+      </c>
+      <c r="AX21">
+        <v>15421</v>
+      </c>
+      <c r="AY21">
+        <v>19749</v>
+      </c>
+      <c r="AZ21">
+        <v>18681</v>
+      </c>
+      <c r="BA21">
+        <v>17401</v>
+      </c>
+      <c r="BB21">
+        <v>13564</v>
+      </c>
+      <c r="BC21">
+        <v>11201</v>
+      </c>
+      <c r="BD21">
+        <v>8136</v>
+      </c>
+      <c r="BE21">
+        <v>5863</v>
+      </c>
+      <c r="BF21">
+        <v>4505</v>
+      </c>
+      <c r="BG21">
+        <v>17196</v>
+      </c>
+      <c r="BH21">
+        <v>20090</v>
+      </c>
+      <c r="BI21">
+        <v>17556</v>
+      </c>
+      <c r="BJ21">
+        <v>28205</v>
+      </c>
+      <c r="BK21">
+        <v>33962</v>
+      </c>
+      <c r="BL21">
+        <v>31600</v>
+      </c>
+      <c r="BM21">
+        <v>33456</v>
+      </c>
+      <c r="BN21">
+        <v>35985</v>
+      </c>
+      <c r="BO21">
+        <v>29010</v>
+      </c>
+      <c r="BP21">
+        <v>27146</v>
+      </c>
+      <c r="BQ21">
+        <v>25670</v>
+      </c>
+      <c r="BR21">
+        <v>19956</v>
+      </c>
+      <c r="BS21">
+        <v>22348</v>
+      </c>
+      <c r="BT21">
+        <v>21465</v>
+      </c>
+      <c r="BU21">
+        <v>16374</v>
+      </c>
+      <c r="BV21">
+        <v>40024</v>
+      </c>
+      <c r="BW21">
+        <v>47816</v>
+      </c>
+      <c r="BX21">
+        <v>50852</v>
+      </c>
+      <c r="BY21">
+        <v>54000</v>
+      </c>
+      <c r="BZ21">
+        <v>57623</v>
+      </c>
+      <c r="CA21">
+        <v>41409</v>
+      </c>
+      <c r="CB21">
+        <v>42942</v>
+      </c>
+      <c r="CC21">
+        <v>48044</v>
+      </c>
+      <c r="CD21">
+        <v>38340</v>
+      </c>
+      <c r="CE21">
+        <v>42830</v>
+      </c>
+      <c r="CF21">
+        <v>32922</v>
+      </c>
+      <c r="CG21">
+        <v>23674</v>
+      </c>
+      <c r="CH21">
+        <v>60453</v>
+      </c>
+      <c r="CI21">
+        <v>75797</v>
+      </c>
+      <c r="CJ21">
+        <v>82331</v>
+      </c>
+      <c r="CK21">
+        <v>75288</v>
+      </c>
+      <c r="CL21">
+        <v>89201</v>
+      </c>
+      <c r="CM21">
+        <v>69437</v>
+      </c>
+      <c r="CN21">
+        <v>66870</v>
+      </c>
+      <c r="CO21">
+        <v>81077</v>
+      </c>
+      <c r="CP21">
+        <v>59821</v>
+      </c>
+      <c r="CQ21">
+        <v>70975</v>
+      </c>
+      <c r="CR21">
+        <v>51372</v>
+      </c>
+      <c r="CS21">
+        <v>48534</v>
+      </c>
+      <c r="CT21">
+        <v>71273</v>
+      </c>
+      <c r="CU21">
+        <v>94701</v>
+      </c>
+      <c r="CV21">
+        <v>109824</v>
+      </c>
+      <c r="CW21">
+        <v>110150</v>
+      </c>
+      <c r="CX21">
+        <v>109009</v>
+      </c>
+      <c r="CY21">
+        <v>101000</v>
+      </c>
+      <c r="CZ21">
+        <v>96382</v>
+      </c>
+      <c r="DA21">
+        <v>94090</v>
+      </c>
+      <c r="DB21">
+        <v>102614</v>
+      </c>
+      <c r="DC21">
+        <v>84146</v>
+      </c>
+      <c r="DD21">
+        <v>76420</v>
+      </c>
+      <c r="DE21">
+        <v>74982</v>
+      </c>
+    </row>
+    <row r="22" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>5692</v>
+      </c>
+      <c r="C22">
+        <v>7310</v>
+      </c>
+      <c r="D22">
+        <v>8128</v>
+      </c>
+      <c r="E22">
+        <v>8966</v>
+      </c>
+      <c r="F22">
+        <v>9677</v>
+      </c>
+      <c r="G22">
+        <v>7607</v>
+      </c>
+      <c r="H22">
+        <v>9268</v>
+      </c>
+      <c r="I22">
+        <v>8620</v>
+      </c>
+      <c r="J22">
+        <v>7550</v>
+      </c>
+      <c r="K22">
+        <v>9241</v>
+      </c>
+      <c r="L22">
+        <v>7032</v>
+      </c>
+      <c r="M22">
+        <v>5774</v>
+      </c>
+      <c r="N22">
+        <v>12403</v>
+      </c>
+      <c r="O22">
+        <v>17548</v>
+      </c>
+      <c r="P22">
+        <v>17801</v>
+      </c>
+      <c r="Q22">
+        <v>15958</v>
+      </c>
+      <c r="R22">
+        <v>15228</v>
+      </c>
+      <c r="S22">
+        <v>11280</v>
+      </c>
+      <c r="T22">
+        <v>12051</v>
+      </c>
+      <c r="U22">
+        <v>12618</v>
+      </c>
+      <c r="V22">
+        <v>10793</v>
+      </c>
+      <c r="W22">
+        <v>10724</v>
+      </c>
+      <c r="X22">
+        <v>7450</v>
+      </c>
+      <c r="Y22">
+        <v>7872</v>
+      </c>
+      <c r="Z22">
+        <v>11645</v>
+      </c>
+      <c r="AA22">
+        <v>17232</v>
+      </c>
+      <c r="AB22">
+        <v>22633</v>
+      </c>
+      <c r="AC22">
+        <v>19162</v>
+      </c>
+      <c r="AD22">
+        <v>21549</v>
+      </c>
+      <c r="AE22">
+        <v>17181</v>
+      </c>
+      <c r="AF22">
+        <v>17764</v>
+      </c>
+      <c r="AG22">
+        <v>18965</v>
+      </c>
+      <c r="AH22">
+        <v>19212</v>
+      </c>
+      <c r="AI22">
+        <v>18038</v>
+      </c>
+      <c r="AJ22">
+        <v>13957</v>
+      </c>
+      <c r="AK22">
+        <v>14510</v>
+      </c>
+      <c r="AL22">
+        <v>13356</v>
+      </c>
+      <c r="AM22">
+        <v>19013</v>
+      </c>
+      <c r="AN22">
+        <v>22114</v>
+      </c>
+      <c r="AO22">
+        <v>20748</v>
+      </c>
+      <c r="AP22">
+        <v>22581</v>
+      </c>
+      <c r="AQ22">
+        <v>20621</v>
+      </c>
+      <c r="AR22">
+        <v>18011</v>
+      </c>
+      <c r="AS22">
+        <v>21320</v>
+      </c>
+      <c r="AT22">
+        <v>19805</v>
+      </c>
+      <c r="AU22">
+        <v>14798</v>
+      </c>
+      <c r="AV22">
+        <v>17693</v>
+      </c>
+      <c r="AW22">
+        <v>14953</v>
+      </c>
+      <c r="AX22">
+        <v>14072</v>
+      </c>
+      <c r="AY22">
+        <v>17290</v>
+      </c>
+      <c r="AZ22">
+        <v>17853</v>
+      </c>
+      <c r="BA22">
+        <v>17944</v>
+      </c>
+      <c r="BB22">
+        <v>14636</v>
+      </c>
+      <c r="BC22">
+        <v>14189</v>
+      </c>
+      <c r="BD22">
+        <v>12322</v>
+      </c>
+      <c r="BE22">
+        <v>10118</v>
+      </c>
+      <c r="BF22">
+        <v>8759</v>
+      </c>
+      <c r="BG22">
+        <v>16117</v>
+      </c>
+      <c r="BH22">
+        <v>17217</v>
+      </c>
+      <c r="BI22">
+        <v>16118</v>
+      </c>
+      <c r="BJ22">
+        <v>19541</v>
+      </c>
+      <c r="BK22">
+        <v>23806</v>
+      </c>
+      <c r="BL22">
+        <v>22857</v>
+      </c>
+      <c r="BM22">
+        <v>23657</v>
+      </c>
+      <c r="BN22">
+        <v>24228</v>
+      </c>
+      <c r="BO22">
+        <v>20593</v>
+      </c>
+      <c r="BP22">
+        <v>18950</v>
+      </c>
+      <c r="BQ22">
+        <v>18607</v>
+      </c>
+      <c r="BR22">
+        <v>17414</v>
+      </c>
+      <c r="BS22">
+        <v>18343</v>
+      </c>
+      <c r="BT22">
+        <v>16975</v>
+      </c>
+      <c r="BU22">
+        <v>14864</v>
+      </c>
+      <c r="BV22">
+        <v>25730</v>
+      </c>
+      <c r="BW22">
+        <v>31466</v>
+      </c>
+      <c r="BX22">
+        <v>33942</v>
+      </c>
+      <c r="BY22">
+        <v>36483</v>
+      </c>
+      <c r="BZ22">
+        <v>38538</v>
+      </c>
+      <c r="CA22">
+        <v>28466</v>
+      </c>
+      <c r="CB22">
+        <v>29401</v>
+      </c>
+      <c r="CC22">
+        <v>32573</v>
+      </c>
+      <c r="CD22">
+        <v>26270</v>
+      </c>
+      <c r="CE22">
+        <v>30290</v>
+      </c>
+      <c r="CF22">
+        <v>22613</v>
+      </c>
+      <c r="CG22">
+        <v>16604</v>
+      </c>
+      <c r="CH22">
+        <v>38335</v>
+      </c>
+      <c r="CI22">
+        <v>49766</v>
+      </c>
+      <c r="CJ22">
+        <v>54727</v>
+      </c>
+      <c r="CK22">
+        <v>49867</v>
+      </c>
+      <c r="CL22">
+        <v>58183</v>
+      </c>
+      <c r="CM22">
+        <v>44412</v>
+      </c>
+      <c r="CN22">
+        <v>44231</v>
+      </c>
+      <c r="CO22">
+        <v>49743</v>
+      </c>
+      <c r="CP22">
+        <v>37709</v>
+      </c>
+      <c r="CQ22">
+        <v>46070</v>
+      </c>
+      <c r="CR22">
+        <v>32004</v>
+      </c>
+      <c r="CS22">
+        <v>32043</v>
+      </c>
+      <c r="CT22">
+        <v>47523</v>
+      </c>
+      <c r="CU22">
+        <v>64253</v>
+      </c>
+      <c r="CV22">
+        <v>76630</v>
+      </c>
+      <c r="CW22">
+        <v>74581</v>
+      </c>
+      <c r="CX22">
+        <v>72801</v>
+      </c>
+      <c r="CY22">
+        <v>66376</v>
+      </c>
+      <c r="CZ22">
+        <v>63046</v>
+      </c>
+      <c r="DA22">
+        <v>61743</v>
+      </c>
+      <c r="DB22">
+        <v>67513</v>
+      </c>
+      <c r="DC22">
+        <v>54102</v>
+      </c>
+      <c r="DD22">
+        <v>47430</v>
+      </c>
+      <c r="DE22">
+        <v>47122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2284</v>
+      </c>
+      <c r="C23">
+        <v>2644</v>
+      </c>
+      <c r="D23">
+        <v>2610</v>
+      </c>
+      <c r="E23">
+        <v>3580</v>
+      </c>
+      <c r="F23">
+        <v>4070</v>
+      </c>
+      <c r="G23">
+        <v>3446</v>
+      </c>
+      <c r="H23">
+        <v>3356</v>
+      </c>
+      <c r="I23">
+        <v>3446</v>
+      </c>
+      <c r="J23">
+        <v>3140</v>
+      </c>
+      <c r="K23">
+        <v>4092</v>
+      </c>
+      <c r="L23">
+        <v>3062</v>
+      </c>
+      <c r="M23">
+        <v>3178</v>
+      </c>
+      <c r="N23">
+        <v>7080</v>
+      </c>
+      <c r="O23">
+        <v>9344</v>
+      </c>
+      <c r="P23">
+        <v>10808</v>
+      </c>
+      <c r="Q23">
+        <v>8978</v>
+      </c>
+      <c r="R23">
+        <v>7778</v>
+      </c>
+      <c r="S23">
+        <v>5786</v>
+      </c>
+      <c r="T23">
+        <v>7364</v>
+      </c>
+      <c r="U23">
+        <v>6678</v>
+      </c>
+      <c r="V23">
+        <v>5174</v>
+      </c>
+      <c r="W23">
+        <v>4786</v>
+      </c>
+      <c r="X23">
+        <v>3420</v>
+      </c>
+      <c r="Y23">
+        <v>3826</v>
+      </c>
+      <c r="Z23">
+        <v>9408</v>
+      </c>
+      <c r="AA23">
+        <v>11628</v>
+      </c>
+      <c r="AB23">
+        <v>13568</v>
+      </c>
+      <c r="AC23">
+        <v>12924</v>
+      </c>
+      <c r="AD23">
+        <v>12688</v>
+      </c>
+      <c r="AE23">
+        <v>12002</v>
+      </c>
+      <c r="AF23">
+        <v>12366</v>
+      </c>
+      <c r="AG23">
+        <v>11998</v>
+      </c>
+      <c r="AH23">
+        <v>11060</v>
+      </c>
+      <c r="AI23">
+        <v>10728</v>
+      </c>
+      <c r="AJ23">
+        <v>8672</v>
+      </c>
+      <c r="AK23">
+        <v>9624</v>
+      </c>
+      <c r="AL23">
+        <v>14216</v>
+      </c>
+      <c r="AM23">
+        <v>16942</v>
+      </c>
+      <c r="AN23">
+        <v>18314</v>
+      </c>
+      <c r="AO23">
+        <v>16164</v>
+      </c>
+      <c r="AP23">
+        <v>16612</v>
+      </c>
+      <c r="AQ23">
+        <v>17876</v>
+      </c>
+      <c r="AR23">
+        <v>13730</v>
+      </c>
+      <c r="AS23">
+        <v>16486</v>
+      </c>
+      <c r="AT23">
+        <v>15184</v>
+      </c>
+      <c r="AU23">
+        <v>11336</v>
+      </c>
+      <c r="AV23">
+        <v>14568</v>
+      </c>
+      <c r="AW23">
+        <v>13236</v>
+      </c>
+      <c r="AX23">
+        <v>20718</v>
+      </c>
+      <c r="AY23">
+        <v>22398</v>
+      </c>
+      <c r="AZ23">
+        <v>21214</v>
+      </c>
+      <c r="BA23">
+        <v>22032</v>
+      </c>
+      <c r="BB23">
+        <v>22712</v>
+      </c>
+      <c r="BC23">
+        <v>24378</v>
+      </c>
+      <c r="BD23">
+        <v>27588</v>
+      </c>
+      <c r="BE23">
+        <v>20760</v>
+      </c>
+      <c r="BF23">
+        <v>20154</v>
+      </c>
+      <c r="BG23">
+        <v>20866</v>
+      </c>
+      <c r="BH23">
+        <v>17302</v>
+      </c>
+      <c r="BI23">
+        <v>19318</v>
+      </c>
+      <c r="BJ23">
+        <v>22762</v>
+      </c>
+      <c r="BK23">
+        <v>24122</v>
+      </c>
+      <c r="BL23">
+        <v>23888</v>
+      </c>
+      <c r="BM23">
+        <v>25878</v>
+      </c>
+      <c r="BN23">
+        <v>25130</v>
+      </c>
+      <c r="BO23">
+        <v>24174</v>
+      </c>
+      <c r="BP23">
+        <v>22234</v>
+      </c>
+      <c r="BQ23">
+        <v>23140</v>
+      </c>
+      <c r="BR23">
+        <v>20614</v>
+      </c>
+      <c r="BS23">
+        <v>22860</v>
+      </c>
+      <c r="BT23">
+        <v>19872</v>
+      </c>
+      <c r="BU23">
+        <v>19010</v>
+      </c>
+      <c r="BV23">
+        <v>25552</v>
+      </c>
+      <c r="BW23">
+        <v>27684</v>
+      </c>
+      <c r="BX23">
+        <v>27146</v>
+      </c>
+      <c r="BY23">
+        <v>27134</v>
+      </c>
+      <c r="BZ23">
+        <v>30040</v>
+      </c>
+      <c r="CA23">
+        <v>26568</v>
+      </c>
+      <c r="CB23">
+        <v>26088</v>
+      </c>
+      <c r="CC23">
+        <v>27650</v>
+      </c>
+      <c r="CD23">
+        <v>23008</v>
+      </c>
+      <c r="CE23">
+        <v>27464</v>
+      </c>
+      <c r="CF23">
+        <v>23328</v>
+      </c>
+      <c r="CG23">
+        <v>21822</v>
+      </c>
+      <c r="CH23">
+        <v>30242</v>
+      </c>
+      <c r="CI23">
+        <v>34818</v>
+      </c>
+      <c r="CJ23">
+        <v>34478</v>
+      </c>
+      <c r="CK23">
+        <v>33252</v>
+      </c>
+      <c r="CL23">
+        <v>38704</v>
+      </c>
+      <c r="CM23">
+        <v>33836</v>
+      </c>
+      <c r="CN23">
+        <v>31226</v>
+      </c>
+      <c r="CO23">
+        <v>38598</v>
+      </c>
+      <c r="CP23">
+        <v>30606</v>
+      </c>
+      <c r="CQ23">
+        <v>36672</v>
+      </c>
+      <c r="CR23">
+        <v>29618</v>
+      </c>
+      <c r="CS23">
+        <v>30488</v>
+      </c>
+      <c r="CT23">
+        <v>26340</v>
+      </c>
+      <c r="CU23">
+        <v>30336</v>
+      </c>
+      <c r="CV23">
+        <v>36172</v>
+      </c>
+      <c r="CW23">
+        <v>33282</v>
+      </c>
+      <c r="CX23">
+        <v>33978</v>
+      </c>
+      <c r="CY23">
+        <v>36140</v>
+      </c>
+      <c r="CZ23">
+        <v>32494</v>
+      </c>
+      <c r="DA23">
+        <v>33200</v>
+      </c>
+      <c r="DB23">
+        <v>35240</v>
+      </c>
+      <c r="DC23">
+        <v>31442</v>
+      </c>
+      <c r="DD23">
+        <v>31148</v>
+      </c>
+      <c r="DE23">
+        <v>33892</v>
+      </c>
+    </row>
+    <row r="24" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>_xlfn.CONCAT(A14,"_total")</f>
+        <v>F00-F09 - Transtornos mentais orgânicos, inclusive os sintomáticos_total</v>
+      </c>
+      <c r="B24">
+        <v>7205093</v>
+      </c>
+      <c r="C24">
+        <v>9646057</v>
+      </c>
+      <c r="D24">
+        <v>10472556</v>
+      </c>
+      <c r="E24">
+        <v>12191362</v>
+      </c>
+      <c r="F24">
+        <v>14043781</v>
+      </c>
+      <c r="G24">
+        <v>11493594</v>
+      </c>
+      <c r="H24">
+        <v>12604666</v>
+      </c>
+      <c r="I24">
+        <v>11755506</v>
+      </c>
+      <c r="J24">
+        <v>11242471</v>
+      </c>
+      <c r="K24">
+        <v>13130885</v>
+      </c>
+      <c r="L24">
+        <v>10104083</v>
+      </c>
+      <c r="M24">
+        <v>8232396</v>
+      </c>
+      <c r="N24">
+        <v>13329497</v>
+      </c>
+      <c r="O24">
+        <v>17686999</v>
+      </c>
+      <c r="P24">
+        <v>17842497</v>
+      </c>
+      <c r="Q24">
+        <v>16872893</v>
+      </c>
+      <c r="R24">
+        <v>17348265</v>
+      </c>
+      <c r="S24">
+        <v>14128559</v>
+      </c>
+      <c r="T24">
+        <v>14296146</v>
+      </c>
+      <c r="U24">
+        <v>15701307</v>
+      </c>
+      <c r="V24">
+        <v>12918940</v>
+      </c>
+      <c r="W24">
+        <v>13951230</v>
+      </c>
+      <c r="X24">
+        <v>10625801</v>
+      </c>
+      <c r="Y24">
+        <v>10643717</v>
+      </c>
+      <c r="Z24">
+        <v>14059001</v>
+      </c>
+      <c r="AA24">
+        <v>18438761</v>
+      </c>
+      <c r="AB24">
+        <v>24146684</v>
+      </c>
+      <c r="AC24">
+        <v>20066133</v>
+      </c>
+      <c r="AD24">
+        <v>21295471</v>
+      </c>
+      <c r="AE24">
+        <v>18796956</v>
+      </c>
+      <c r="AF24">
+        <v>17535895</v>
+      </c>
+      <c r="AG24">
+        <v>19291195</v>
+      </c>
+      <c r="AH24">
+        <v>18818333</v>
+      </c>
+      <c r="AI24">
+        <v>18712756</v>
+      </c>
+      <c r="AJ24">
+        <v>15280725</v>
+      </c>
+      <c r="AK24">
+        <v>16650688</v>
+      </c>
+      <c r="AL24">
+        <v>14159780</v>
+      </c>
+      <c r="AM24">
+        <v>18520682</v>
+      </c>
+      <c r="AN24">
+        <v>21420993</v>
+      </c>
+      <c r="AO24">
+        <v>19647635</v>
+      </c>
+      <c r="AP24">
+        <v>21611519</v>
+      </c>
+      <c r="AQ24">
+        <v>21322286</v>
+      </c>
+      <c r="AR24">
+        <v>18062631</v>
+      </c>
+      <c r="AS24">
+        <v>22296661</v>
+      </c>
+      <c r="AT24">
+        <v>20405616</v>
+      </c>
+      <c r="AU24">
+        <v>16078634</v>
+      </c>
+      <c r="AV24">
+        <v>20389977</v>
+      </c>
+      <c r="AW24">
+        <v>19409656</v>
+      </c>
+      <c r="AX24">
+        <v>16228765</v>
+      </c>
+      <c r="AY24">
+        <v>19270233</v>
+      </c>
+      <c r="AZ24">
+        <v>19095554</v>
+      </c>
+      <c r="BA24">
+        <v>19528646</v>
+      </c>
+      <c r="BB24">
+        <v>18055161</v>
+      </c>
+      <c r="BC24">
+        <v>18172799</v>
+      </c>
+      <c r="BD24">
+        <v>15197165</v>
+      </c>
+      <c r="BE24">
+        <v>12412552</v>
+      </c>
+      <c r="BF24">
+        <v>10478899</v>
+      </c>
+      <c r="BG24">
+        <v>17037445</v>
+      </c>
+      <c r="BH24">
+        <v>16520344</v>
+      </c>
+      <c r="BI24">
+        <v>17426499</v>
+      </c>
+      <c r="BJ24">
+        <v>20870224</v>
+      </c>
+      <c r="BK24">
+        <v>22606956</v>
+      </c>
+      <c r="BL24">
+        <v>21439554</v>
+      </c>
+      <c r="BM24">
+        <v>22122731</v>
+      </c>
+      <c r="BN24">
+        <v>23892737</v>
+      </c>
+      <c r="BO24">
+        <v>21779971</v>
+      </c>
+      <c r="BP24">
+        <v>21549941</v>
+      </c>
+      <c r="BQ24">
+        <v>22063295</v>
+      </c>
+      <c r="BR24">
+        <v>19054945</v>
+      </c>
+      <c r="BS24">
+        <v>21625066</v>
+      </c>
+      <c r="BT24">
+        <v>18225154</v>
+      </c>
+      <c r="BU24">
+        <v>17413861</v>
+      </c>
+      <c r="BV24">
+        <v>23928217</v>
+      </c>
+      <c r="BW24">
+        <v>26927362</v>
+      </c>
+      <c r="BX24">
+        <v>26677221</v>
+      </c>
+      <c r="BY24">
+        <v>26884283</v>
+      </c>
+      <c r="BZ24">
+        <v>31572161</v>
+      </c>
+      <c r="CA24">
+        <v>26865950</v>
+      </c>
+      <c r="CB24">
+        <v>26505361</v>
+      </c>
+      <c r="CC24">
+        <v>28270162</v>
+      </c>
+      <c r="CD24">
+        <v>23016715</v>
+      </c>
+      <c r="CE24">
+        <v>26096335</v>
+      </c>
+      <c r="CF24">
+        <v>22240304</v>
+      </c>
+      <c r="CG24">
+        <v>23911709</v>
+      </c>
+      <c r="CH24">
+        <v>25454786</v>
+      </c>
+      <c r="CI24">
+        <v>29912945</v>
+      </c>
+      <c r="CJ24">
+        <v>31539972</v>
+      </c>
+      <c r="CK24">
+        <v>28574833</v>
+      </c>
+      <c r="CL24">
+        <v>34826560</v>
+      </c>
+      <c r="CM24">
+        <v>29726466</v>
+      </c>
+      <c r="CN24">
+        <v>28747946</v>
+      </c>
+      <c r="CO24">
+        <v>34034554</v>
+      </c>
+      <c r="CP24">
+        <v>28705419</v>
+      </c>
+      <c r="CQ24">
+        <v>33952484</v>
+      </c>
+      <c r="CR24">
+        <v>24541421</v>
+      </c>
+      <c r="CS24">
+        <v>26879021</v>
+      </c>
+      <c r="CT24">
+        <v>25275132</v>
+      </c>
+      <c r="CU24">
+        <v>30378153</v>
+      </c>
+      <c r="CV24">
+        <v>35109997</v>
+      </c>
+      <c r="CW24">
+        <v>33724120</v>
+      </c>
+      <c r="CX24">
+        <v>34104504</v>
+      </c>
+      <c r="CY24">
+        <v>33044607</v>
+      </c>
+      <c r="CZ24">
+        <v>31531084</v>
+      </c>
+      <c r="DA24">
+        <v>32572819</v>
+      </c>
+      <c r="DB24">
+        <v>38382081</v>
+      </c>
+      <c r="DC24">
+        <v>32803507</v>
+      </c>
+      <c r="DD24">
+        <v>29122607</v>
+      </c>
+      <c r="DE24">
+        <v>29797837</v>
+      </c>
+    </row>
+    <row r="25" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>_xlfn.CONCAT(A15,"_total")</f>
+        <v>F20-F29 - Esquizofrenia, transtornos esquizotípicos e transtornos delirantes_total</v>
+      </c>
+      <c r="B25">
+        <v>7205093</v>
+      </c>
+      <c r="C25">
+        <v>9646057</v>
+      </c>
+      <c r="D25">
+        <v>10472556</v>
+      </c>
+      <c r="E25">
+        <v>12191362</v>
+      </c>
+      <c r="F25">
+        <v>14043781</v>
+      </c>
+      <c r="G25">
+        <v>11493594</v>
+      </c>
+      <c r="H25">
+        <v>12604666</v>
+      </c>
+      <c r="I25">
+        <v>11755506</v>
+      </c>
+      <c r="J25">
+        <v>11242471</v>
+      </c>
+      <c r="K25">
+        <v>13130885</v>
+      </c>
+      <c r="L25">
+        <v>10104083</v>
+      </c>
+      <c r="M25">
+        <v>8232396</v>
+      </c>
+      <c r="N25">
+        <v>13329497</v>
+      </c>
+      <c r="O25">
+        <v>17686999</v>
+      </c>
+      <c r="P25">
+        <v>17842497</v>
+      </c>
+      <c r="Q25">
+        <v>16872893</v>
+      </c>
+      <c r="R25">
+        <v>17348265</v>
+      </c>
+      <c r="S25">
+        <v>14128559</v>
+      </c>
+      <c r="T25">
+        <v>14296146</v>
+      </c>
+      <c r="U25">
+        <v>15701307</v>
+      </c>
+      <c r="V25">
+        <v>12918940</v>
+      </c>
+      <c r="W25">
+        <v>13951230</v>
+      </c>
+      <c r="X25">
+        <v>10625801</v>
+      </c>
+      <c r="Y25">
+        <v>10643717</v>
+      </c>
+      <c r="Z25">
+        <v>14059001</v>
+      </c>
+      <c r="AA25">
+        <v>18438761</v>
+      </c>
+      <c r="AB25">
+        <v>24146684</v>
+      </c>
+      <c r="AC25">
+        <v>20066133</v>
+      </c>
+      <c r="AD25">
+        <v>21295471</v>
+      </c>
+      <c r="AE25">
+        <v>18796956</v>
+      </c>
+      <c r="AF25">
+        <v>17535895</v>
+      </c>
+      <c r="AG25">
+        <v>19291195</v>
+      </c>
+      <c r="AH25">
+        <v>18818333</v>
+      </c>
+      <c r="AI25">
+        <v>18712756</v>
+      </c>
+      <c r="AJ25">
+        <v>15280725</v>
+      </c>
+      <c r="AK25">
+        <v>16650688</v>
+      </c>
+      <c r="AL25">
+        <v>14159780</v>
+      </c>
+      <c r="AM25">
+        <v>18520682</v>
+      </c>
+      <c r="AN25">
+        <v>21420993</v>
+      </c>
+      <c r="AO25">
+        <v>19647635</v>
+      </c>
+      <c r="AP25">
+        <v>21611519</v>
+      </c>
+      <c r="AQ25">
+        <v>21322286</v>
+      </c>
+      <c r="AR25">
+        <v>18062631</v>
+      </c>
+      <c r="AS25">
+        <v>22296661</v>
+      </c>
+      <c r="AT25">
+        <v>20405616</v>
+      </c>
+      <c r="AU25">
+        <v>16078634</v>
+      </c>
+      <c r="AV25">
+        <v>20389977</v>
+      </c>
+      <c r="AW25">
+        <v>19409656</v>
+      </c>
+      <c r="AX25">
+        <v>16228765</v>
+      </c>
+      <c r="AY25">
+        <v>19270233</v>
+      </c>
+      <c r="AZ25">
+        <v>19095554</v>
+      </c>
+      <c r="BA25">
+        <v>19528646</v>
+      </c>
+      <c r="BB25">
+        <v>18055161</v>
+      </c>
+      <c r="BC25">
+        <v>18172799</v>
+      </c>
+      <c r="BD25">
+        <v>15197165</v>
+      </c>
+      <c r="BE25">
+        <v>12412552</v>
+      </c>
+      <c r="BF25">
+        <v>10478899</v>
+      </c>
+      <c r="BG25">
+        <v>17037445</v>
+      </c>
+      <c r="BH25">
+        <v>16520344</v>
+      </c>
+      <c r="BI25">
+        <v>17426499</v>
+      </c>
+      <c r="BJ25">
+        <v>20870224</v>
+      </c>
+      <c r="BK25">
+        <v>22606956</v>
+      </c>
+      <c r="BL25">
+        <v>21439554</v>
+      </c>
+      <c r="BM25">
+        <v>22122731</v>
+      </c>
+      <c r="BN25">
+        <v>23892737</v>
+      </c>
+      <c r="BO25">
+        <v>21779971</v>
+      </c>
+      <c r="BP25">
+        <v>21549941</v>
+      </c>
+      <c r="BQ25">
+        <v>22063295</v>
+      </c>
+      <c r="BR25">
+        <v>19054945</v>
+      </c>
+      <c r="BS25">
+        <v>21625066</v>
+      </c>
+      <c r="BT25">
+        <v>18225154</v>
+      </c>
+      <c r="BU25">
+        <v>17413861</v>
+      </c>
+      <c r="BV25">
+        <v>23928217</v>
+      </c>
+      <c r="BW25">
+        <v>26927362</v>
+      </c>
+      <c r="BX25">
+        <v>26677221</v>
+      </c>
+      <c r="BY25">
+        <v>26884283</v>
+      </c>
+      <c r="BZ25">
+        <v>31572161</v>
+      </c>
+      <c r="CA25">
+        <v>26865950</v>
+      </c>
+      <c r="CB25">
+        <v>26505361</v>
+      </c>
+      <c r="CC25">
+        <v>28270162</v>
+      </c>
+      <c r="CD25">
+        <v>23016715</v>
+      </c>
+      <c r="CE25">
+        <v>26096335</v>
+      </c>
+      <c r="CF25">
+        <v>22240304</v>
+      </c>
+      <c r="CG25">
+        <v>23911709</v>
+      </c>
+      <c r="CH25">
+        <v>25454786</v>
+      </c>
+      <c r="CI25">
+        <v>29912945</v>
+      </c>
+      <c r="CJ25">
+        <v>31539972</v>
+      </c>
+      <c r="CK25">
+        <v>28574833</v>
+      </c>
+      <c r="CL25">
+        <v>34826560</v>
+      </c>
+      <c r="CM25">
+        <v>29726466</v>
+      </c>
+      <c r="CN25">
+        <v>28747946</v>
+      </c>
+      <c r="CO25">
+        <v>34034554</v>
+      </c>
+      <c r="CP25">
+        <v>28705419</v>
+      </c>
+      <c r="CQ25">
+        <v>33952484</v>
+      </c>
+      <c r="CR25">
+        <v>24541421</v>
+      </c>
+      <c r="CS25">
+        <v>26879021</v>
+      </c>
+      <c r="CT25">
+        <v>25275132</v>
+      </c>
+      <c r="CU25">
+        <v>30378153</v>
+      </c>
+      <c r="CV25">
+        <v>35109997</v>
+      </c>
+      <c r="CW25">
+        <v>33724120</v>
+      </c>
+      <c r="CX25">
+        <v>34104504</v>
+      </c>
+      <c r="CY25">
+        <v>33044607</v>
+      </c>
+      <c r="CZ25">
+        <v>31531084</v>
+      </c>
+      <c r="DA25">
+        <v>32572819</v>
+      </c>
+      <c r="DB25">
+        <v>38382081</v>
+      </c>
+      <c r="DC25">
+        <v>32803507</v>
+      </c>
+      <c r="DD25">
+        <v>29122607</v>
+      </c>
+      <c r="DE25">
+        <v>29797837</v>
+      </c>
+    </row>
+    <row r="26" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>_xlfn.CONCAT(A16,"_total")</f>
+        <v>F30-F39 - Transtornos do humor [afetivos]_total</v>
+      </c>
+      <c r="B26">
+        <v>7205093</v>
+      </c>
+      <c r="C26">
+        <v>9646057</v>
+      </c>
+      <c r="D26">
+        <v>10472556</v>
+      </c>
+      <c r="E26">
+        <v>12191362</v>
+      </c>
+      <c r="F26">
+        <v>14043781</v>
+      </c>
+      <c r="G26">
+        <v>11493594</v>
+      </c>
+      <c r="H26">
+        <v>12604666</v>
+      </c>
+      <c r="I26">
+        <v>11755506</v>
+      </c>
+      <c r="J26">
+        <v>11242471</v>
+      </c>
+      <c r="K26">
+        <v>13130885</v>
+      </c>
+      <c r="L26">
+        <v>10104083</v>
+      </c>
+      <c r="M26">
+        <v>8232396</v>
+      </c>
+      <c r="N26">
+        <v>13329497</v>
+      </c>
+      <c r="O26">
+        <v>17686999</v>
+      </c>
+      <c r="P26">
+        <v>17842497</v>
+      </c>
+      <c r="Q26">
+        <v>16872893</v>
+      </c>
+      <c r="R26">
+        <v>17348265</v>
+      </c>
+      <c r="S26">
+        <v>14128559</v>
+      </c>
+      <c r="T26">
+        <v>14296146</v>
+      </c>
+      <c r="U26">
+        <v>15701307</v>
+      </c>
+      <c r="V26">
+        <v>12918940</v>
+      </c>
+      <c r="W26">
+        <v>13951230</v>
+      </c>
+      <c r="X26">
+        <v>10625801</v>
+      </c>
+      <c r="Y26">
+        <v>10643717</v>
+      </c>
+      <c r="Z26">
+        <v>14059001</v>
+      </c>
+      <c r="AA26">
+        <v>18438761</v>
+      </c>
+      <c r="AB26">
+        <v>24146684</v>
+      </c>
+      <c r="AC26">
+        <v>20066133</v>
+      </c>
+      <c r="AD26">
+        <v>21295471</v>
+      </c>
+      <c r="AE26">
+        <v>18796956</v>
+      </c>
+      <c r="AF26">
+        <v>17535895</v>
+      </c>
+      <c r="AG26">
+        <v>19291195</v>
+      </c>
+      <c r="AH26">
+        <v>18818333</v>
+      </c>
+      <c r="AI26">
+        <v>18712756</v>
+      </c>
+      <c r="AJ26">
+        <v>15280725</v>
+      </c>
+      <c r="AK26">
+        <v>16650688</v>
+      </c>
+      <c r="AL26">
+        <v>14159780</v>
+      </c>
+      <c r="AM26">
+        <v>18520682</v>
+      </c>
+      <c r="AN26">
+        <v>21420993</v>
+      </c>
+      <c r="AO26">
+        <v>19647635</v>
+      </c>
+      <c r="AP26">
+        <v>21611519</v>
+      </c>
+      <c r="AQ26">
+        <v>21322286</v>
+      </c>
+      <c r="AR26">
+        <v>18062631</v>
+      </c>
+      <c r="AS26">
+        <v>22296661</v>
+      </c>
+      <c r="AT26">
+        <v>20405616</v>
+      </c>
+      <c r="AU26">
+        <v>16078634</v>
+      </c>
+      <c r="AV26">
+        <v>20389977</v>
+      </c>
+      <c r="AW26">
+        <v>19409656</v>
+      </c>
+      <c r="AX26">
+        <v>16228765</v>
+      </c>
+      <c r="AY26">
+        <v>19270233</v>
+      </c>
+      <c r="AZ26">
+        <v>19095554</v>
+      </c>
+      <c r="BA26">
+        <v>19528646</v>
+      </c>
+      <c r="BB26">
+        <v>18055161</v>
+      </c>
+      <c r="BC26">
+        <v>18172799</v>
+      </c>
+      <c r="BD26">
+        <v>15197165</v>
+      </c>
+      <c r="BE26">
+        <v>12412552</v>
+      </c>
+      <c r="BF26">
+        <v>10478899</v>
+      </c>
+      <c r="BG26">
+        <v>17037445</v>
+      </c>
+      <c r="BH26">
+        <v>16520344</v>
+      </c>
+      <c r="BI26">
+        <v>17426499</v>
+      </c>
+      <c r="BJ26">
+        <v>20870224</v>
+      </c>
+      <c r="BK26">
+        <v>22606956</v>
+      </c>
+      <c r="BL26">
+        <v>21439554</v>
+      </c>
+      <c r="BM26">
+        <v>22122731</v>
+      </c>
+      <c r="BN26">
+        <v>23892737</v>
+      </c>
+      <c r="BO26">
+        <v>21779971</v>
+      </c>
+      <c r="BP26">
+        <v>21549941</v>
+      </c>
+      <c r="BQ26">
+        <v>22063295</v>
+      </c>
+      <c r="BR26">
+        <v>19054945</v>
+      </c>
+      <c r="BS26">
+        <v>21625066</v>
+      </c>
+      <c r="BT26">
+        <v>18225154</v>
+      </c>
+      <c r="BU26">
+        <v>17413861</v>
+      </c>
+      <c r="BV26">
+        <v>23928217</v>
+      </c>
+      <c r="BW26">
+        <v>26927362</v>
+      </c>
+      <c r="BX26">
+        <v>26677221</v>
+      </c>
+      <c r="BY26">
+        <v>26884283</v>
+      </c>
+      <c r="BZ26">
+        <v>31572161</v>
+      </c>
+      <c r="CA26">
+        <v>26865950</v>
+      </c>
+      <c r="CB26">
+        <v>26505361</v>
+      </c>
+      <c r="CC26">
+        <v>28270162</v>
+      </c>
+      <c r="CD26">
+        <v>23016715</v>
+      </c>
+      <c r="CE26">
+        <v>26096335</v>
+      </c>
+      <c r="CF26">
+        <v>22240304</v>
+      </c>
+      <c r="CG26">
+        <v>23911709</v>
+      </c>
+      <c r="CH26">
+        <v>25454786</v>
+      </c>
+      <c r="CI26">
+        <v>29912945</v>
+      </c>
+      <c r="CJ26">
+        <v>31539972</v>
+      </c>
+      <c r="CK26">
+        <v>28574833</v>
+      </c>
+      <c r="CL26">
+        <v>34826560</v>
+      </c>
+      <c r="CM26">
+        <v>29726466</v>
+      </c>
+      <c r="CN26">
+        <v>28747946</v>
+      </c>
+      <c r="CO26">
+        <v>34034554</v>
+      </c>
+      <c r="CP26">
+        <v>28705419</v>
+      </c>
+      <c r="CQ26">
+        <v>33952484</v>
+      </c>
+      <c r="CR26">
+        <v>24541421</v>
+      </c>
+      <c r="CS26">
+        <v>26879021</v>
+      </c>
+      <c r="CT26">
+        <v>25275132</v>
+      </c>
+      <c r="CU26">
+        <v>30378153</v>
+      </c>
+      <c r="CV26">
+        <v>35109997</v>
+      </c>
+      <c r="CW26">
+        <v>33724120</v>
+      </c>
+      <c r="CX26">
+        <v>34104504</v>
+      </c>
+      <c r="CY26">
+        <v>33044607</v>
+      </c>
+      <c r="CZ26">
+        <v>31531084</v>
+      </c>
+      <c r="DA26">
+        <v>32572819</v>
+      </c>
+      <c r="DB26">
+        <v>38382081</v>
+      </c>
+      <c r="DC26">
+        <v>32803507</v>
+      </c>
+      <c r="DD26">
+        <v>29122607</v>
+      </c>
+      <c r="DE26">
+        <v>29797837</v>
+      </c>
+    </row>
+    <row r="27" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>_xlfn.CONCAT(A17,"_total")</f>
+        <v>F40-F48 - Transtornos neuróticos, transtornos relacionados com o "stress" e transtornos somatoformes_total</v>
+      </c>
+      <c r="B27">
+        <v>7205093</v>
+      </c>
+      <c r="C27">
+        <v>9646057</v>
+      </c>
+      <c r="D27">
+        <v>10472556</v>
+      </c>
+      <c r="E27">
+        <v>12191362</v>
+      </c>
+      <c r="F27">
+        <v>14043781</v>
+      </c>
+      <c r="G27">
+        <v>11493594</v>
+      </c>
+      <c r="H27">
+        <v>12604666</v>
+      </c>
+      <c r="I27">
+        <v>11755506</v>
+      </c>
+      <c r="J27">
+        <v>11242471</v>
+      </c>
+      <c r="K27">
+        <v>13130885</v>
+      </c>
+      <c r="L27">
+        <v>10104083</v>
+      </c>
+      <c r="M27">
+        <v>8232396</v>
+      </c>
+      <c r="N27">
+        <v>13329497</v>
+      </c>
+      <c r="O27">
+        <v>17686999</v>
+      </c>
+      <c r="P27">
+        <v>17842497</v>
+      </c>
+      <c r="Q27">
+        <v>16872893</v>
+      </c>
+      <c r="R27">
+        <v>17348265</v>
+      </c>
+      <c r="S27">
+        <v>14128559</v>
+      </c>
+      <c r="T27">
+        <v>14296146</v>
+      </c>
+      <c r="U27">
+        <v>15701307</v>
+      </c>
+      <c r="V27">
+        <v>12918940</v>
+      </c>
+      <c r="W27">
+        <v>13951230</v>
+      </c>
+      <c r="X27">
+        <v>10625801</v>
+      </c>
+      <c r="Y27">
+        <v>10643717</v>
+      </c>
+      <c r="Z27">
+        <v>14059001</v>
+      </c>
+      <c r="AA27">
+        <v>18438761</v>
+      </c>
+      <c r="AB27">
+        <v>24146684</v>
+      </c>
+      <c r="AC27">
+        <v>20066133</v>
+      </c>
+      <c r="AD27">
+        <v>21295471</v>
+      </c>
+      <c r="AE27">
+        <v>18796956</v>
+      </c>
+      <c r="AF27">
+        <v>17535895</v>
+      </c>
+      <c r="AG27">
+        <v>19291195</v>
+      </c>
+      <c r="AH27">
+        <v>18818333</v>
+      </c>
+      <c r="AI27">
+        <v>18712756</v>
+      </c>
+      <c r="AJ27">
+        <v>15280725</v>
+      </c>
+      <c r="AK27">
+        <v>16650688</v>
+      </c>
+      <c r="AL27">
+        <v>14159780</v>
+      </c>
+      <c r="AM27">
+        <v>18520682</v>
+      </c>
+      <c r="AN27">
+        <v>21420993</v>
+      </c>
+      <c r="AO27">
+        <v>19647635</v>
+      </c>
+      <c r="AP27">
+        <v>21611519</v>
+      </c>
+      <c r="AQ27">
+        <v>21322286</v>
+      </c>
+      <c r="AR27">
+        <v>18062631</v>
+      </c>
+      <c r="AS27">
+        <v>22296661</v>
+      </c>
+      <c r="AT27">
+        <v>20405616</v>
+      </c>
+      <c r="AU27">
+        <v>16078634</v>
+      </c>
+      <c r="AV27">
+        <v>20389977</v>
+      </c>
+      <c r="AW27">
+        <v>19409656</v>
+      </c>
+      <c r="AX27">
+        <v>16228765</v>
+      </c>
+      <c r="AY27">
+        <v>19270233</v>
+      </c>
+      <c r="AZ27">
+        <v>19095554</v>
+      </c>
+      <c r="BA27">
+        <v>19528646</v>
+      </c>
+      <c r="BB27">
+        <v>18055161</v>
+      </c>
+      <c r="BC27">
+        <v>18172799</v>
+      </c>
+      <c r="BD27">
+        <v>15197165</v>
+      </c>
+      <c r="BE27">
+        <v>12412552</v>
+      </c>
+      <c r="BF27">
+        <v>10478899</v>
+      </c>
+      <c r="BG27">
+        <v>17037445</v>
+      </c>
+      <c r="BH27">
+        <v>16520344</v>
+      </c>
+      <c r="BI27">
+        <v>17426499</v>
+      </c>
+      <c r="BJ27">
+        <v>20870224</v>
+      </c>
+      <c r="BK27">
+        <v>22606956</v>
+      </c>
+      <c r="BL27">
+        <v>21439554</v>
+      </c>
+      <c r="BM27">
+        <v>22122731</v>
+      </c>
+      <c r="BN27">
+        <v>23892737</v>
+      </c>
+      <c r="BO27">
+        <v>21779971</v>
+      </c>
+      <c r="BP27">
+        <v>21549941</v>
+      </c>
+      <c r="BQ27">
+        <v>22063295</v>
+      </c>
+      <c r="BR27">
+        <v>19054945</v>
+      </c>
+      <c r="BS27">
+        <v>21625066</v>
+      </c>
+      <c r="BT27">
+        <v>18225154</v>
+      </c>
+      <c r="BU27">
+        <v>17413861</v>
+      </c>
+      <c r="BV27">
+        <v>23928217</v>
+      </c>
+      <c r="BW27">
+        <v>26927362</v>
+      </c>
+      <c r="BX27">
+        <v>26677221</v>
+      </c>
+      <c r="BY27">
+        <v>26884283</v>
+      </c>
+      <c r="BZ27">
+        <v>31572161</v>
+      </c>
+      <c r="CA27">
+        <v>26865950</v>
+      </c>
+      <c r="CB27">
+        <v>26505361</v>
+      </c>
+      <c r="CC27">
+        <v>28270162</v>
+      </c>
+      <c r="CD27">
+        <v>23016715</v>
+      </c>
+      <c r="CE27">
+        <v>26096335</v>
+      </c>
+      <c r="CF27">
+        <v>22240304</v>
+      </c>
+      <c r="CG27">
+        <v>23911709</v>
+      </c>
+      <c r="CH27">
+        <v>25454786</v>
+      </c>
+      <c r="CI27">
+        <v>29912945</v>
+      </c>
+      <c r="CJ27">
+        <v>31539972</v>
+      </c>
+      <c r="CK27">
+        <v>28574833</v>
+      </c>
+      <c r="CL27">
+        <v>34826560</v>
+      </c>
+      <c r="CM27">
+        <v>29726466</v>
+      </c>
+      <c r="CN27">
+        <v>28747946</v>
+      </c>
+      <c r="CO27">
+        <v>34034554</v>
+      </c>
+      <c r="CP27">
+        <v>28705419</v>
+      </c>
+      <c r="CQ27">
+        <v>33952484</v>
+      </c>
+      <c r="CR27">
+        <v>24541421</v>
+      </c>
+      <c r="CS27">
+        <v>26879021</v>
+      </c>
+      <c r="CT27">
+        <v>25275132</v>
+      </c>
+      <c r="CU27">
+        <v>30378153</v>
+      </c>
+      <c r="CV27">
+        <v>35109997</v>
+      </c>
+      <c r="CW27">
+        <v>33724120</v>
+      </c>
+      <c r="CX27">
+        <v>34104504</v>
+      </c>
+      <c r="CY27">
+        <v>33044607</v>
+      </c>
+      <c r="CZ27">
+        <v>31531084</v>
+      </c>
+      <c r="DA27">
+        <v>32572819</v>
+      </c>
+      <c r="DB27">
+        <v>38382081</v>
+      </c>
+      <c r="DC27">
+        <v>32803507</v>
+      </c>
+      <c r="DD27">
+        <v>29122607</v>
+      </c>
+      <c r="DE27">
+        <v>29797837</v>
+      </c>
+    </row>
+    <row r="28" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>_xlfn.CONCAT(A18,"_total")</f>
+        <v>F50-F59 - Síndromes comportamentais associadas a disfunções fisiológicas e a fatores físicos_total</v>
+      </c>
+      <c r="B28">
+        <v>7205093</v>
+      </c>
+      <c r="C28">
+        <v>9646057</v>
+      </c>
+      <c r="D28">
+        <v>10472556</v>
+      </c>
+      <c r="E28">
+        <v>12191362</v>
+      </c>
+      <c r="F28">
+        <v>14043781</v>
+      </c>
+      <c r="G28">
+        <v>11493594</v>
+      </c>
+      <c r="H28">
+        <v>12604666</v>
+      </c>
+      <c r="I28">
+        <v>11755506</v>
+      </c>
+      <c r="J28">
+        <v>11242471</v>
+      </c>
+      <c r="K28">
+        <v>13130885</v>
+      </c>
+      <c r="L28">
+        <v>10104083</v>
+      </c>
+      <c r="M28">
+        <v>8232396</v>
+      </c>
+      <c r="N28">
+        <v>13329497</v>
+      </c>
+      <c r="O28">
+        <v>17686999</v>
+      </c>
+      <c r="P28">
+        <v>17842497</v>
+      </c>
+      <c r="Q28">
+        <v>16872893</v>
+      </c>
+      <c r="R28">
+        <v>17348265</v>
+      </c>
+      <c r="S28">
+        <v>14128559</v>
+      </c>
+      <c r="T28">
+        <v>14296146</v>
+      </c>
+      <c r="U28">
+        <v>15701307</v>
+      </c>
+      <c r="V28">
+        <v>12918940</v>
+      </c>
+      <c r="W28">
+        <v>13951230</v>
+      </c>
+      <c r="X28">
+        <v>10625801</v>
+      </c>
+      <c r="Y28">
+        <v>10643717</v>
+      </c>
+      <c r="Z28">
+        <v>14059001</v>
+      </c>
+      <c r="AA28">
+        <v>18438761</v>
+      </c>
+      <c r="AB28">
+        <v>24146684</v>
+      </c>
+      <c r="AC28">
+        <v>20066133</v>
+      </c>
+      <c r="AD28">
+        <v>21295471</v>
+      </c>
+      <c r="AE28">
+        <v>18796956</v>
+      </c>
+      <c r="AF28">
+        <v>17535895</v>
+      </c>
+      <c r="AG28">
+        <v>19291195</v>
+      </c>
+      <c r="AH28">
+        <v>18818333</v>
+      </c>
+      <c r="AI28">
+        <v>18712756</v>
+      </c>
+      <c r="AJ28">
+        <v>15280725</v>
+      </c>
+      <c r="AK28">
+        <v>16650688</v>
+      </c>
+      <c r="AL28">
+        <v>14159780</v>
+      </c>
+      <c r="AM28">
+        <v>18520682</v>
+      </c>
+      <c r="AN28">
+        <v>21420993</v>
+      </c>
+      <c r="AO28">
+        <v>19647635</v>
+      </c>
+      <c r="AP28">
+        <v>21611519</v>
+      </c>
+      <c r="AQ28">
+        <v>21322286</v>
+      </c>
+      <c r="AR28">
+        <v>18062631</v>
+      </c>
+      <c r="AS28">
+        <v>22296661</v>
+      </c>
+      <c r="AT28">
+        <v>20405616</v>
+      </c>
+      <c r="AU28">
+        <v>16078634</v>
+      </c>
+      <c r="AV28">
+        <v>20389977</v>
+      </c>
+      <c r="AW28">
+        <v>19409656</v>
+      </c>
+      <c r="AX28">
+        <v>16228765</v>
+      </c>
+      <c r="AY28">
+        <v>19270233</v>
+      </c>
+      <c r="AZ28">
+        <v>19095554</v>
+      </c>
+      <c r="BA28">
+        <v>19528646</v>
+      </c>
+      <c r="BB28">
+        <v>18055161</v>
+      </c>
+      <c r="BC28">
+        <v>18172799</v>
+      </c>
+      <c r="BD28">
+        <v>15197165</v>
+      </c>
+      <c r="BE28">
+        <v>12412552</v>
+      </c>
+      <c r="BF28">
+        <v>10478899</v>
+      </c>
+      <c r="BG28">
+        <v>17037445</v>
+      </c>
+      <c r="BH28">
+        <v>16520344</v>
+      </c>
+      <c r="BI28">
+        <v>17426499</v>
+      </c>
+      <c r="BJ28">
+        <v>20870224</v>
+      </c>
+      <c r="BK28">
+        <v>22606956</v>
+      </c>
+      <c r="BL28">
+        <v>21439554</v>
+      </c>
+      <c r="BM28">
+        <v>22122731</v>
+      </c>
+      <c r="BN28">
+        <v>23892737</v>
+      </c>
+      <c r="BO28">
+        <v>21779971</v>
+      </c>
+      <c r="BP28">
+        <v>21549941</v>
+      </c>
+      <c r="BQ28">
+        <v>22063295</v>
+      </c>
+      <c r="BR28">
+        <v>19054945</v>
+      </c>
+      <c r="BS28">
+        <v>21625066</v>
+      </c>
+      <c r="BT28">
+        <v>18225154</v>
+      </c>
+      <c r="BU28">
+        <v>17413861</v>
+      </c>
+      <c r="BV28">
+        <v>23928217</v>
+      </c>
+      <c r="BW28">
+        <v>26927362</v>
+      </c>
+      <c r="BX28">
+        <v>26677221</v>
+      </c>
+      <c r="BY28">
+        <v>26884283</v>
+      </c>
+      <c r="BZ28">
+        <v>31572161</v>
+      </c>
+      <c r="CA28">
+        <v>26865950</v>
+      </c>
+      <c r="CB28">
+        <v>26505361</v>
+      </c>
+      <c r="CC28">
+        <v>28270162</v>
+      </c>
+      <c r="CD28">
+        <v>23016715</v>
+      </c>
+      <c r="CE28">
+        <v>26096335</v>
+      </c>
+      <c r="CF28">
+        <v>22240304</v>
+      </c>
+      <c r="CG28">
+        <v>23911709</v>
+      </c>
+      <c r="CH28">
+        <v>25454786</v>
+      </c>
+      <c r="CI28">
+        <v>29912945</v>
+      </c>
+      <c r="CJ28">
+        <v>31539972</v>
+      </c>
+      <c r="CK28">
+        <v>28574833</v>
+      </c>
+      <c r="CL28">
+        <v>34826560</v>
+      </c>
+      <c r="CM28">
+        <v>29726466</v>
+      </c>
+      <c r="CN28">
+        <v>28747946</v>
+      </c>
+      <c r="CO28">
+        <v>34034554</v>
+      </c>
+      <c r="CP28">
+        <v>28705419</v>
+      </c>
+      <c r="CQ28">
+        <v>33952484</v>
+      </c>
+      <c r="CR28">
+        <v>24541421</v>
+      </c>
+      <c r="CS28">
+        <v>26879021</v>
+      </c>
+      <c r="CT28">
+        <v>25275132</v>
+      </c>
+      <c r="CU28">
+        <v>30378153</v>
+      </c>
+      <c r="CV28">
+        <v>35109997</v>
+      </c>
+      <c r="CW28">
+        <v>33724120</v>
+      </c>
+      <c r="CX28">
+        <v>34104504</v>
+      </c>
+      <c r="CY28">
+        <v>33044607</v>
+      </c>
+      <c r="CZ28">
+        <v>31531084</v>
+      </c>
+      <c r="DA28">
+        <v>32572819</v>
+      </c>
+      <c r="DB28">
+        <v>38382081</v>
+      </c>
+      <c r="DC28">
+        <v>32803507</v>
+      </c>
+      <c r="DD28">
+        <v>29122607</v>
+      </c>
+      <c r="DE28">
+        <v>29797837</v>
+      </c>
+    </row>
+    <row r="29" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>_xlfn.CONCAT(A19,"_total")</f>
+        <v>F60-F69 - Transtornos da personalidade e do comportamento do adulto_total</v>
+      </c>
+      <c r="B29">
+        <v>7205093</v>
+      </c>
+      <c r="C29">
+        <v>9646057</v>
+      </c>
+      <c r="D29">
+        <v>10472556</v>
+      </c>
+      <c r="E29">
+        <v>12191362</v>
+      </c>
+      <c r="F29">
+        <v>14043781</v>
+      </c>
+      <c r="G29">
+        <v>11493594</v>
+      </c>
+      <c r="H29">
+        <v>12604666</v>
+      </c>
+      <c r="I29">
+        <v>11755506</v>
+      </c>
+      <c r="J29">
+        <v>11242471</v>
+      </c>
+      <c r="K29">
+        <v>13130885</v>
+      </c>
+      <c r="L29">
+        <v>10104083</v>
+      </c>
+      <c r="M29">
+        <v>8232396</v>
+      </c>
+      <c r="N29">
+        <v>13329497</v>
+      </c>
+      <c r="O29">
+        <v>17686999</v>
+      </c>
+      <c r="P29">
+        <v>17842497</v>
+      </c>
+      <c r="Q29">
+        <v>16872893</v>
+      </c>
+      <c r="R29">
+        <v>17348265</v>
+      </c>
+      <c r="S29">
+        <v>14128559</v>
+      </c>
+      <c r="T29">
+        <v>14296146</v>
+      </c>
+      <c r="U29">
+        <v>15701307</v>
+      </c>
+      <c r="V29">
+        <v>12918940</v>
+      </c>
+      <c r="W29">
+        <v>13951230</v>
+      </c>
+      <c r="X29">
+        <v>10625801</v>
+      </c>
+      <c r="Y29">
+        <v>10643717</v>
+      </c>
+      <c r="Z29">
+        <v>14059001</v>
+      </c>
+      <c r="AA29">
+        <v>18438761</v>
+      </c>
+      <c r="AB29">
+        <v>24146684</v>
+      </c>
+      <c r="AC29">
+        <v>20066133</v>
+      </c>
+      <c r="AD29">
+        <v>21295471</v>
+      </c>
+      <c r="AE29">
+        <v>18796956</v>
+      </c>
+      <c r="AF29">
+        <v>17535895</v>
+      </c>
+      <c r="AG29">
+        <v>19291195</v>
+      </c>
+      <c r="AH29">
+        <v>18818333</v>
+      </c>
+      <c r="AI29">
+        <v>18712756</v>
+      </c>
+      <c r="AJ29">
+        <v>15280725</v>
+      </c>
+      <c r="AK29">
+        <v>16650688</v>
+      </c>
+      <c r="AL29">
+        <v>14159780</v>
+      </c>
+      <c r="AM29">
+        <v>18520682</v>
+      </c>
+      <c r="AN29">
+        <v>21420993</v>
+      </c>
+      <c r="AO29">
+        <v>19647635</v>
+      </c>
+      <c r="AP29">
+        <v>21611519</v>
+      </c>
+      <c r="AQ29">
+        <v>21322286</v>
+      </c>
+      <c r="AR29">
+        <v>18062631</v>
+      </c>
+      <c r="AS29">
+        <v>22296661</v>
+      </c>
+      <c r="AT29">
+        <v>20405616</v>
+      </c>
+      <c r="AU29">
+        <v>16078634</v>
+      </c>
+      <c r="AV29">
+        <v>20389977</v>
+      </c>
+      <c r="AW29">
+        <v>19409656</v>
+      </c>
+      <c r="AX29">
+        <v>16228765</v>
+      </c>
+      <c r="AY29">
+        <v>19270233</v>
+      </c>
+      <c r="AZ29">
+        <v>19095554</v>
+      </c>
+      <c r="BA29">
+        <v>19528646</v>
+      </c>
+      <c r="BB29">
+        <v>18055161</v>
+      </c>
+      <c r="BC29">
+        <v>18172799</v>
+      </c>
+      <c r="BD29">
+        <v>15197165</v>
+      </c>
+      <c r="BE29">
+        <v>12412552</v>
+      </c>
+      <c r="BF29">
+        <v>10478899</v>
+      </c>
+      <c r="BG29">
+        <v>17037445</v>
+      </c>
+      <c r="BH29">
+        <v>16520344</v>
+      </c>
+      <c r="BI29">
+        <v>17426499</v>
+      </c>
+      <c r="BJ29">
+        <v>20870224</v>
+      </c>
+      <c r="BK29">
+        <v>22606956</v>
+      </c>
+      <c r="BL29">
+        <v>21439554</v>
+      </c>
+      <c r="BM29">
+        <v>22122731</v>
+      </c>
+      <c r="BN29">
+        <v>23892737</v>
+      </c>
+      <c r="BO29">
+        <v>21779971</v>
+      </c>
+      <c r="BP29">
+        <v>21549941</v>
+      </c>
+      <c r="BQ29">
+        <v>22063295</v>
+      </c>
+      <c r="BR29">
+        <v>19054945</v>
+      </c>
+      <c r="BS29">
+        <v>21625066</v>
+      </c>
+      <c r="BT29">
+        <v>18225154</v>
+      </c>
+      <c r="BU29">
+        <v>17413861</v>
+      </c>
+      <c r="BV29">
+        <v>23928217</v>
+      </c>
+      <c r="BW29">
+        <v>26927362</v>
+      </c>
+      <c r="BX29">
+        <v>26677221</v>
+      </c>
+      <c r="BY29">
+        <v>26884283</v>
+      </c>
+      <c r="BZ29">
+        <v>31572161</v>
+      </c>
+      <c r="CA29">
+        <v>26865950</v>
+      </c>
+      <c r="CB29">
+        <v>26505361</v>
+      </c>
+      <c r="CC29">
+        <v>28270162</v>
+      </c>
+      <c r="CD29">
+        <v>23016715</v>
+      </c>
+      <c r="CE29">
+        <v>26096335</v>
+      </c>
+      <c r="CF29">
+        <v>22240304</v>
+      </c>
+      <c r="CG29">
+        <v>23911709</v>
+      </c>
+      <c r="CH29">
+        <v>25454786</v>
+      </c>
+      <c r="CI29">
+        <v>29912945</v>
+      </c>
+      <c r="CJ29">
+        <v>31539972</v>
+      </c>
+      <c r="CK29">
+        <v>28574833</v>
+      </c>
+      <c r="CL29">
+        <v>34826560</v>
+      </c>
+      <c r="CM29">
+        <v>29726466</v>
+      </c>
+      <c r="CN29">
+        <v>28747946</v>
+      </c>
+      <c r="CO29">
+        <v>34034554</v>
+      </c>
+      <c r="CP29">
+        <v>28705419</v>
+      </c>
+      <c r="CQ29">
+        <v>33952484</v>
+      </c>
+      <c r="CR29">
+        <v>24541421</v>
+      </c>
+      <c r="CS29">
+        <v>26879021</v>
+      </c>
+      <c r="CT29">
+        <v>25275132</v>
+      </c>
+      <c r="CU29">
+        <v>30378153</v>
+      </c>
+      <c r="CV29">
+        <v>35109997</v>
+      </c>
+      <c r="CW29">
+        <v>33724120</v>
+      </c>
+      <c r="CX29">
+        <v>34104504</v>
+      </c>
+      <c r="CY29">
+        <v>33044607</v>
+      </c>
+      <c r="CZ29">
+        <v>31531084</v>
+      </c>
+      <c r="DA29">
+        <v>32572819</v>
+      </c>
+      <c r="DB29">
+        <v>38382081</v>
+      </c>
+      <c r="DC29">
+        <v>32803507</v>
+      </c>
+      <c r="DD29">
+        <v>29122607</v>
+      </c>
+      <c r="DE29">
+        <v>29797837</v>
+      </c>
+    </row>
+    <row r="30" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>_xlfn.CONCAT(A20,"_total")</f>
+        <v>F70-F79 - Retardo mental_total</v>
+      </c>
+      <c r="B30">
+        <v>7205093</v>
+      </c>
+      <c r="C30">
+        <v>9646057</v>
+      </c>
+      <c r="D30">
+        <v>10472556</v>
+      </c>
+      <c r="E30">
+        <v>12191362</v>
+      </c>
+      <c r="F30">
+        <v>14043781</v>
+      </c>
+      <c r="G30">
+        <v>11493594</v>
+      </c>
+      <c r="H30">
+        <v>12604666</v>
+      </c>
+      <c r="I30">
+        <v>11755506</v>
+      </c>
+      <c r="J30">
+        <v>11242471</v>
+      </c>
+      <c r="K30">
+        <v>13130885</v>
+      </c>
+      <c r="L30">
+        <v>10104083</v>
+      </c>
+      <c r="M30">
+        <v>8232396</v>
+      </c>
+      <c r="N30">
+        <v>13329497</v>
+      </c>
+      <c r="O30">
+        <v>17686999</v>
+      </c>
+      <c r="P30">
+        <v>17842497</v>
+      </c>
+      <c r="Q30">
+        <v>16872893</v>
+      </c>
+      <c r="R30">
+        <v>17348265</v>
+      </c>
+      <c r="S30">
+        <v>14128559</v>
+      </c>
+      <c r="T30">
+        <v>14296146</v>
+      </c>
+      <c r="U30">
+        <v>15701307</v>
+      </c>
+      <c r="V30">
+        <v>12918940</v>
+      </c>
+      <c r="W30">
+        <v>13951230</v>
+      </c>
+      <c r="X30">
+        <v>10625801</v>
+      </c>
+      <c r="Y30">
+        <v>10643717</v>
+      </c>
+      <c r="Z30">
+        <v>14059001</v>
+      </c>
+      <c r="AA30">
+        <v>18438761</v>
+      </c>
+      <c r="AB30">
+        <v>24146684</v>
+      </c>
+      <c r="AC30">
+        <v>20066133</v>
+      </c>
+      <c r="AD30">
+        <v>21295471</v>
+      </c>
+      <c r="AE30">
+        <v>18796956</v>
+      </c>
+      <c r="AF30">
+        <v>17535895</v>
+      </c>
+      <c r="AG30">
+        <v>19291195</v>
+      </c>
+      <c r="AH30">
+        <v>18818333</v>
+      </c>
+      <c r="AI30">
+        <v>18712756</v>
+      </c>
+      <c r="AJ30">
+        <v>15280725</v>
+      </c>
+      <c r="AK30">
+        <v>16650688</v>
+      </c>
+      <c r="AL30">
+        <v>14159780</v>
+      </c>
+      <c r="AM30">
+        <v>18520682</v>
+      </c>
+      <c r="AN30">
+        <v>21420993</v>
+      </c>
+      <c r="AO30">
+        <v>19647635</v>
+      </c>
+      <c r="AP30">
+        <v>21611519</v>
+      </c>
+      <c r="AQ30">
+        <v>21322286</v>
+      </c>
+      <c r="AR30">
+        <v>18062631</v>
+      </c>
+      <c r="AS30">
+        <v>22296661</v>
+      </c>
+      <c r="AT30">
+        <v>20405616</v>
+      </c>
+      <c r="AU30">
+        <v>16078634</v>
+      </c>
+      <c r="AV30">
+        <v>20389977</v>
+      </c>
+      <c r="AW30">
+        <v>19409656</v>
+      </c>
+      <c r="AX30">
+        <v>16228765</v>
+      </c>
+      <c r="AY30">
+        <v>19270233</v>
+      </c>
+      <c r="AZ30">
+        <v>19095554</v>
+      </c>
+      <c r="BA30">
+        <v>19528646</v>
+      </c>
+      <c r="BB30">
+        <v>18055161</v>
+      </c>
+      <c r="BC30">
+        <v>18172799</v>
+      </c>
+      <c r="BD30">
+        <v>15197165</v>
+      </c>
+      <c r="BE30">
+        <v>12412552</v>
+      </c>
+      <c r="BF30">
+        <v>10478899</v>
+      </c>
+      <c r="BG30">
+        <v>17037445</v>
+      </c>
+      <c r="BH30">
+        <v>16520344</v>
+      </c>
+      <c r="BI30">
+        <v>17426499</v>
+      </c>
+      <c r="BJ30">
+        <v>20870224</v>
+      </c>
+      <c r="BK30">
+        <v>22606956</v>
+      </c>
+      <c r="BL30">
+        <v>21439554</v>
+      </c>
+      <c r="BM30">
+        <v>22122731</v>
+      </c>
+      <c r="BN30">
+        <v>23892737</v>
+      </c>
+      <c r="BO30">
+        <v>21779971</v>
+      </c>
+      <c r="BP30">
+        <v>21549941</v>
+      </c>
+      <c r="BQ30">
+        <v>22063295</v>
+      </c>
+      <c r="BR30">
+        <v>19054945</v>
+      </c>
+      <c r="BS30">
+        <v>21625066</v>
+      </c>
+      <c r="BT30">
+        <v>18225154</v>
+      </c>
+      <c r="BU30">
+        <v>17413861</v>
+      </c>
+      <c r="BV30">
+        <v>23928217</v>
+      </c>
+      <c r="BW30">
+        <v>26927362</v>
+      </c>
+      <c r="BX30">
+        <v>26677221</v>
+      </c>
+      <c r="BY30">
+        <v>26884283</v>
+      </c>
+      <c r="BZ30">
+        <v>31572161</v>
+      </c>
+      <c r="CA30">
+        <v>26865950</v>
+      </c>
+      <c r="CB30">
+        <v>26505361</v>
+      </c>
+      <c r="CC30">
+        <v>28270162</v>
+      </c>
+      <c r="CD30">
+        <v>23016715</v>
+      </c>
+      <c r="CE30">
+        <v>26096335</v>
+      </c>
+      <c r="CF30">
+        <v>22240304</v>
+      </c>
+      <c r="CG30">
+        <v>23911709</v>
+      </c>
+      <c r="CH30">
+        <v>25454786</v>
+      </c>
+      <c r="CI30">
+        <v>29912945</v>
+      </c>
+      <c r="CJ30">
+        <v>31539972</v>
+      </c>
+      <c r="CK30">
+        <v>28574833</v>
+      </c>
+      <c r="CL30">
+        <v>34826560</v>
+      </c>
+      <c r="CM30">
+        <v>29726466</v>
+      </c>
+      <c r="CN30">
+        <v>28747946</v>
+      </c>
+      <c r="CO30">
+        <v>34034554</v>
+      </c>
+      <c r="CP30">
+        <v>28705419</v>
+      </c>
+      <c r="CQ30">
+        <v>33952484</v>
+      </c>
+      <c r="CR30">
+        <v>24541421</v>
+      </c>
+      <c r="CS30">
+        <v>26879021</v>
+      </c>
+      <c r="CT30">
+        <v>25275132</v>
+      </c>
+      <c r="CU30">
+        <v>30378153</v>
+      </c>
+      <c r="CV30">
+        <v>35109997</v>
+      </c>
+      <c r="CW30">
+        <v>33724120</v>
+      </c>
+      <c r="CX30">
+        <v>34104504</v>
+      </c>
+      <c r="CY30">
+        <v>33044607</v>
+      </c>
+      <c r="CZ30">
+        <v>31531084</v>
+      </c>
+      <c r="DA30">
+        <v>32572819</v>
+      </c>
+      <c r="DB30">
+        <v>38382081</v>
+      </c>
+      <c r="DC30">
+        <v>32803507</v>
+      </c>
+      <c r="DD30">
+        <v>29122607</v>
+      </c>
+      <c r="DE30">
+        <v>29797837</v>
+      </c>
+    </row>
+    <row r="31" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>_xlfn.CONCAT(A21,"_total")</f>
+        <v>F80-F89 - Transtornos do desenvolvimento psicológico_total</v>
+      </c>
+      <c r="B31">
+        <v>7205093</v>
+      </c>
+      <c r="C31">
+        <v>9646057</v>
+      </c>
+      <c r="D31">
+        <v>10472556</v>
+      </c>
+      <c r="E31">
+        <v>12191362</v>
+      </c>
+      <c r="F31">
+        <v>14043781</v>
+      </c>
+      <c r="G31">
+        <v>11493594</v>
+      </c>
+      <c r="H31">
+        <v>12604666</v>
+      </c>
+      <c r="I31">
+        <v>11755506</v>
+      </c>
+      <c r="J31">
+        <v>11242471</v>
+      </c>
+      <c r="K31">
+        <v>13130885</v>
+      </c>
+      <c r="L31">
+        <v>10104083</v>
+      </c>
+      <c r="M31">
+        <v>8232396</v>
+      </c>
+      <c r="N31">
+        <v>13329497</v>
+      </c>
+      <c r="O31">
+        <v>17686999</v>
+      </c>
+      <c r="P31">
+        <v>17842497</v>
+      </c>
+      <c r="Q31">
+        <v>16872893</v>
+      </c>
+      <c r="R31">
+        <v>17348265</v>
+      </c>
+      <c r="S31">
+        <v>14128559</v>
+      </c>
+      <c r="T31">
+        <v>14296146</v>
+      </c>
+      <c r="U31">
+        <v>15701307</v>
+      </c>
+      <c r="V31">
+        <v>12918940</v>
+      </c>
+      <c r="W31">
+        <v>13951230</v>
+      </c>
+      <c r="X31">
+        <v>10625801</v>
+      </c>
+      <c r="Y31">
+        <v>10643717</v>
+      </c>
+      <c r="Z31">
+        <v>14059001</v>
+      </c>
+      <c r="AA31">
+        <v>18438761</v>
+      </c>
+      <c r="AB31">
+        <v>24146684</v>
+      </c>
+      <c r="AC31">
+        <v>20066133</v>
+      </c>
+      <c r="AD31">
+        <v>21295471</v>
+      </c>
+      <c r="AE31">
+        <v>18796956</v>
+      </c>
+      <c r="AF31">
+        <v>17535895</v>
+      </c>
+      <c r="AG31">
+        <v>19291195</v>
+      </c>
+      <c r="AH31">
+        <v>18818333</v>
+      </c>
+      <c r="AI31">
+        <v>18712756</v>
+      </c>
+      <c r="AJ31">
+        <v>15280725</v>
+      </c>
+      <c r="AK31">
+        <v>16650688</v>
+      </c>
+      <c r="AL31">
+        <v>14159780</v>
+      </c>
+      <c r="AM31">
+        <v>18520682</v>
+      </c>
+      <c r="AN31">
+        <v>21420993</v>
+      </c>
+      <c r="AO31">
+        <v>19647635</v>
+      </c>
+      <c r="AP31">
+        <v>21611519</v>
+      </c>
+      <c r="AQ31">
+        <v>21322286</v>
+      </c>
+      <c r="AR31">
+        <v>18062631</v>
+      </c>
+      <c r="AS31">
+        <v>22296661</v>
+      </c>
+      <c r="AT31">
+        <v>20405616</v>
+      </c>
+      <c r="AU31">
+        <v>16078634</v>
+      </c>
+      <c r="AV31">
+        <v>20389977</v>
+      </c>
+      <c r="AW31">
+        <v>19409656</v>
+      </c>
+      <c r="AX31">
+        <v>16228765</v>
+      </c>
+      <c r="AY31">
+        <v>19270233</v>
+      </c>
+      <c r="AZ31">
+        <v>19095554</v>
+      </c>
+      <c r="BA31">
+        <v>19528646</v>
+      </c>
+      <c r="BB31">
+        <v>18055161</v>
+      </c>
+      <c r="BC31">
+        <v>18172799</v>
+      </c>
+      <c r="BD31">
+        <v>15197165</v>
+      </c>
+      <c r="BE31">
+        <v>12412552</v>
+      </c>
+      <c r="BF31">
+        <v>10478899</v>
+      </c>
+      <c r="BG31">
+        <v>17037445</v>
+      </c>
+      <c r="BH31">
+        <v>16520344</v>
+      </c>
+      <c r="BI31">
+        <v>17426499</v>
+      </c>
+      <c r="BJ31">
+        <v>20870224</v>
+      </c>
+      <c r="BK31">
+        <v>22606956</v>
+      </c>
+      <c r="BL31">
+        <v>21439554</v>
+      </c>
+      <c r="BM31">
+        <v>22122731</v>
+      </c>
+      <c r="BN31">
+        <v>23892737</v>
+      </c>
+      <c r="BO31">
+        <v>21779971</v>
+      </c>
+      <c r="BP31">
+        <v>21549941</v>
+      </c>
+      <c r="BQ31">
+        <v>22063295</v>
+      </c>
+      <c r="BR31">
+        <v>19054945</v>
+      </c>
+      <c r="BS31">
+        <v>21625066</v>
+      </c>
+      <c r="BT31">
+        <v>18225154</v>
+      </c>
+      <c r="BU31">
+        <v>17413861</v>
+      </c>
+      <c r="BV31">
+        <v>23928217</v>
+      </c>
+      <c r="BW31">
+        <v>26927362</v>
+      </c>
+      <c r="BX31">
+        <v>26677221</v>
+      </c>
+      <c r="BY31">
+        <v>26884283</v>
+      </c>
+      <c r="BZ31">
+        <v>31572161</v>
+      </c>
+      <c r="CA31">
+        <v>26865950</v>
+      </c>
+      <c r="CB31">
+        <v>26505361</v>
+      </c>
+      <c r="CC31">
+        <v>28270162</v>
+      </c>
+      <c r="CD31">
+        <v>23016715</v>
+      </c>
+      <c r="CE31">
+        <v>26096335</v>
+      </c>
+      <c r="CF31">
+        <v>22240304</v>
+      </c>
+      <c r="CG31">
+        <v>23911709</v>
+      </c>
+      <c r="CH31">
+        <v>25454786</v>
+      </c>
+      <c r="CI31">
+        <v>29912945</v>
+      </c>
+      <c r="CJ31">
+        <v>31539972</v>
+      </c>
+      <c r="CK31">
+        <v>28574833</v>
+      </c>
+      <c r="CL31">
+        <v>34826560</v>
+      </c>
+      <c r="CM31">
+        <v>29726466</v>
+      </c>
+      <c r="CN31">
+        <v>28747946</v>
+      </c>
+      <c r="CO31">
+        <v>34034554</v>
+      </c>
+      <c r="CP31">
+        <v>28705419</v>
+      </c>
+      <c r="CQ31">
+        <v>33952484</v>
+      </c>
+      <c r="CR31">
+        <v>24541421</v>
+      </c>
+      <c r="CS31">
+        <v>26879021</v>
+      </c>
+      <c r="CT31">
+        <v>25275132</v>
+      </c>
+      <c r="CU31">
+        <v>30378153</v>
+      </c>
+      <c r="CV31">
+        <v>35109997</v>
+      </c>
+      <c r="CW31">
+        <v>33724120</v>
+      </c>
+      <c r="CX31">
+        <v>34104504</v>
+      </c>
+      <c r="CY31">
+        <v>33044607</v>
+      </c>
+      <c r="CZ31">
+        <v>31531084</v>
+      </c>
+      <c r="DA31">
+        <v>32572819</v>
+      </c>
+      <c r="DB31">
+        <v>38382081</v>
+      </c>
+      <c r="DC31">
+        <v>32803507</v>
+      </c>
+      <c r="DD31">
+        <v>29122607</v>
+      </c>
+      <c r="DE31">
+        <v>29797837</v>
+      </c>
+    </row>
+    <row r="32" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>_xlfn.CONCAT(A22,"_total")</f>
+        <v>F90-F98 - Transtornos do comportamento e transtornos emocionais que aparecem habitualmente durante a infância ou a adolescência_total</v>
+      </c>
+      <c r="B32">
+        <v>7205093</v>
+      </c>
+      <c r="C32">
+        <v>9646057</v>
+      </c>
+      <c r="D32">
+        <v>10472556</v>
+      </c>
+      <c r="E32">
+        <v>12191362</v>
+      </c>
+      <c r="F32">
+        <v>14043781</v>
+      </c>
+      <c r="G32">
+        <v>11493594</v>
+      </c>
+      <c r="H32">
+        <v>12604666</v>
+      </c>
+      <c r="I32">
+        <v>11755506</v>
+      </c>
+      <c r="J32">
+        <v>11242471</v>
+      </c>
+      <c r="K32">
+        <v>13130885</v>
+      </c>
+      <c r="L32">
+        <v>10104083</v>
+      </c>
+      <c r="M32">
+        <v>8232396</v>
+      </c>
+      <c r="N32">
+        <v>13329497</v>
+      </c>
+      <c r="O32">
+        <v>17686999</v>
+      </c>
+      <c r="P32">
+        <v>17842497</v>
+      </c>
+      <c r="Q32">
+        <v>16872893</v>
+      </c>
+      <c r="R32">
+        <v>17348265</v>
+      </c>
+      <c r="S32">
+        <v>14128559</v>
+      </c>
+      <c r="T32">
+        <v>14296146</v>
+      </c>
+      <c r="U32">
+        <v>15701307</v>
+      </c>
+      <c r="V32">
+        <v>12918940</v>
+      </c>
+      <c r="W32">
+        <v>13951230</v>
+      </c>
+      <c r="X32">
+        <v>10625801</v>
+      </c>
+      <c r="Y32">
+        <v>10643717</v>
+      </c>
+      <c r="Z32">
+        <v>14059001</v>
+      </c>
+      <c r="AA32">
+        <v>18438761</v>
+      </c>
+      <c r="AB32">
+        <v>24146684</v>
+      </c>
+      <c r="AC32">
+        <v>20066133</v>
+      </c>
+      <c r="AD32">
+        <v>21295471</v>
+      </c>
+      <c r="AE32">
+        <v>18796956</v>
+      </c>
+      <c r="AF32">
+        <v>17535895</v>
+      </c>
+      <c r="AG32">
+        <v>19291195</v>
+      </c>
+      <c r="AH32">
+        <v>18818333</v>
+      </c>
+      <c r="AI32">
+        <v>18712756</v>
+      </c>
+      <c r="AJ32">
+        <v>15280725</v>
+      </c>
+      <c r="AK32">
+        <v>16650688</v>
+      </c>
+      <c r="AL32">
+        <v>14159780</v>
+      </c>
+      <c r="AM32">
+        <v>18520682</v>
+      </c>
+      <c r="AN32">
+        <v>21420993</v>
+      </c>
+      <c r="AO32">
+        <v>19647635</v>
+      </c>
+      <c r="AP32">
+        <v>21611519</v>
+      </c>
+      <c r="AQ32">
+        <v>21322286</v>
+      </c>
+      <c r="AR32">
+        <v>18062631</v>
+      </c>
+      <c r="AS32">
+        <v>22296661</v>
+      </c>
+      <c r="AT32">
+        <v>20405616</v>
+      </c>
+      <c r="AU32">
+        <v>16078634</v>
+      </c>
+      <c r="AV32">
+        <v>20389977</v>
+      </c>
+      <c r="AW32">
+        <v>19409656</v>
+      </c>
+      <c r="AX32">
+        <v>16228765</v>
+      </c>
+      <c r="AY32">
+        <v>19270233</v>
+      </c>
+      <c r="AZ32">
+        <v>19095554</v>
+      </c>
+      <c r="BA32">
+        <v>19528646</v>
+      </c>
+      <c r="BB32">
+        <v>18055161</v>
+      </c>
+      <c r="BC32">
+        <v>18172799</v>
+      </c>
+      <c r="BD32">
+        <v>15197165</v>
+      </c>
+      <c r="BE32">
+        <v>12412552</v>
+      </c>
+      <c r="BF32">
+        <v>10478899</v>
+      </c>
+      <c r="BG32">
+        <v>17037445</v>
+      </c>
+      <c r="BH32">
+        <v>16520344</v>
+      </c>
+      <c r="BI32">
+        <v>17426499</v>
+      </c>
+      <c r="BJ32">
+        <v>20870224</v>
+      </c>
+      <c r="BK32">
+        <v>22606956</v>
+      </c>
+      <c r="BL32">
+        <v>21439554</v>
+      </c>
+      <c r="BM32">
+        <v>22122731</v>
+      </c>
+      <c r="BN32">
+        <v>23892737</v>
+      </c>
+      <c r="BO32">
+        <v>21779971</v>
+      </c>
+      <c r="BP32">
+        <v>21549941</v>
+      </c>
+      <c r="BQ32">
+        <v>22063295</v>
+      </c>
+      <c r="BR32">
+        <v>19054945</v>
+      </c>
+      <c r="BS32">
+        <v>21625066</v>
+      </c>
+      <c r="BT32">
+        <v>18225154</v>
+      </c>
+      <c r="BU32">
+        <v>17413861</v>
+      </c>
+      <c r="BV32">
+        <v>23928217</v>
+      </c>
+      <c r="BW32">
+        <v>26927362</v>
+      </c>
+      <c r="BX32">
+        <v>26677221</v>
+      </c>
+      <c r="BY32">
+        <v>26884283</v>
+      </c>
+      <c r="BZ32">
+        <v>31572161</v>
+      </c>
+      <c r="CA32">
+        <v>26865950</v>
+      </c>
+      <c r="CB32">
+        <v>26505361</v>
+      </c>
+      <c r="CC32">
+        <v>28270162</v>
+      </c>
+      <c r="CD32">
+        <v>23016715</v>
+      </c>
+      <c r="CE32">
+        <v>26096335</v>
+      </c>
+      <c r="CF32">
+        <v>22240304</v>
+      </c>
+      <c r="CG32">
+        <v>23911709</v>
+      </c>
+      <c r="CH32">
+        <v>25454786</v>
+      </c>
+      <c r="CI32">
+        <v>29912945</v>
+      </c>
+      <c r="CJ32">
+        <v>31539972</v>
+      </c>
+      <c r="CK32">
+        <v>28574833</v>
+      </c>
+      <c r="CL32">
+        <v>34826560</v>
+      </c>
+      <c r="CM32">
+        <v>29726466</v>
+      </c>
+      <c r="CN32">
+        <v>28747946</v>
+      </c>
+      <c r="CO32">
+        <v>34034554</v>
+      </c>
+      <c r="CP32">
+        <v>28705419</v>
+      </c>
+      <c r="CQ32">
+        <v>33952484</v>
+      </c>
+      <c r="CR32">
+        <v>24541421</v>
+      </c>
+      <c r="CS32">
+        <v>26879021</v>
+      </c>
+      <c r="CT32">
+        <v>25275132</v>
+      </c>
+      <c r="CU32">
+        <v>30378153</v>
+      </c>
+      <c r="CV32">
+        <v>35109997</v>
+      </c>
+      <c r="CW32">
+        <v>33724120</v>
+      </c>
+      <c r="CX32">
+        <v>34104504</v>
+      </c>
+      <c r="CY32">
+        <v>33044607</v>
+      </c>
+      <c r="CZ32">
+        <v>31531084</v>
+      </c>
+      <c r="DA32">
+        <v>32572819</v>
+      </c>
+      <c r="DB32">
+        <v>38382081</v>
+      </c>
+      <c r="DC32">
+        <v>32803507</v>
+      </c>
+      <c r="DD32">
+        <v>29122607</v>
+      </c>
+      <c r="DE32">
+        <v>29797837</v>
+      </c>
+    </row>
+    <row r="33" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>_xlfn.CONCAT(A23,"_total")</f>
+        <v>F99-F99 - Transtorno mental não especificado_total</v>
+      </c>
+      <c r="B33">
+        <v>7205093</v>
+      </c>
+      <c r="C33">
+        <v>9646057</v>
+      </c>
+      <c r="D33">
+        <v>10472556</v>
+      </c>
+      <c r="E33">
+        <v>12191362</v>
+      </c>
+      <c r="F33">
+        <v>14043781</v>
+      </c>
+      <c r="G33">
+        <v>11493594</v>
+      </c>
+      <c r="H33">
+        <v>12604666</v>
+      </c>
+      <c r="I33">
+        <v>11755506</v>
+      </c>
+      <c r="J33">
+        <v>11242471</v>
+      </c>
+      <c r="K33">
+        <v>13130885</v>
+      </c>
+      <c r="L33">
+        <v>10104083</v>
+      </c>
+      <c r="M33">
+        <v>8232396</v>
+      </c>
+      <c r="N33">
+        <v>13329497</v>
+      </c>
+      <c r="O33">
+        <v>17686999</v>
+      </c>
+      <c r="P33">
+        <v>17842497</v>
+      </c>
+      <c r="Q33">
+        <v>16872893</v>
+      </c>
+      <c r="R33">
+        <v>17348265</v>
+      </c>
+      <c r="S33">
+        <v>14128559</v>
+      </c>
+      <c r="T33">
+        <v>14296146</v>
+      </c>
+      <c r="U33">
+        <v>15701307</v>
+      </c>
+      <c r="V33">
+        <v>12918940</v>
+      </c>
+      <c r="W33">
+        <v>13951230</v>
+      </c>
+      <c r="X33">
+        <v>10625801</v>
+      </c>
+      <c r="Y33">
+        <v>10643717</v>
+      </c>
+      <c r="Z33">
+        <v>14059001</v>
+      </c>
+      <c r="AA33">
+        <v>18438761</v>
+      </c>
+      <c r="AB33">
+        <v>24146684</v>
+      </c>
+      <c r="AC33">
+        <v>20066133</v>
+      </c>
+      <c r="AD33">
+        <v>21295471</v>
+      </c>
+      <c r="AE33">
+        <v>18796956</v>
+      </c>
+      <c r="AF33">
+        <v>17535895</v>
+      </c>
+      <c r="AG33">
+        <v>19291195</v>
+      </c>
+      <c r="AH33">
+        <v>18818333</v>
+      </c>
+      <c r="AI33">
+        <v>18712756</v>
+      </c>
+      <c r="AJ33">
+        <v>15280725</v>
+      </c>
+      <c r="AK33">
+        <v>16650688</v>
+      </c>
+      <c r="AL33">
+        <v>14159780</v>
+      </c>
+      <c r="AM33">
+        <v>18520682</v>
+      </c>
+      <c r="AN33">
+        <v>21420993</v>
+      </c>
+      <c r="AO33">
+        <v>19647635</v>
+      </c>
+      <c r="AP33">
+        <v>21611519</v>
+      </c>
+      <c r="AQ33">
+        <v>21322286</v>
+      </c>
+      <c r="AR33">
+        <v>18062631</v>
+      </c>
+      <c r="AS33">
+        <v>22296661</v>
+      </c>
+      <c r="AT33">
+        <v>20405616</v>
+      </c>
+      <c r="AU33">
+        <v>16078634</v>
+      </c>
+      <c r="AV33">
+        <v>20389977</v>
+      </c>
+      <c r="AW33">
+        <v>19409656</v>
+      </c>
+      <c r="AX33">
+        <v>16228765</v>
+      </c>
+      <c r="AY33">
+        <v>19270233</v>
+      </c>
+      <c r="AZ33">
+        <v>19095554</v>
+      </c>
+      <c r="BA33">
+        <v>19528646</v>
+      </c>
+      <c r="BB33">
+        <v>18055161</v>
+      </c>
+      <c r="BC33">
+        <v>18172799</v>
+      </c>
+      <c r="BD33">
+        <v>15197165</v>
+      </c>
+      <c r="BE33">
+        <v>12412552</v>
+      </c>
+      <c r="BF33">
+        <v>10478899</v>
+      </c>
+      <c r="BG33">
+        <v>17037445</v>
+      </c>
+      <c r="BH33">
+        <v>16520344</v>
+      </c>
+      <c r="BI33">
+        <v>17426499</v>
+      </c>
+      <c r="BJ33">
+        <v>20870224</v>
+      </c>
+      <c r="BK33">
+        <v>22606956</v>
+      </c>
+      <c r="BL33">
+        <v>21439554</v>
+      </c>
+      <c r="BM33">
+        <v>22122731</v>
+      </c>
+      <c r="BN33">
+        <v>23892737</v>
+      </c>
+      <c r="BO33">
+        <v>21779971</v>
+      </c>
+      <c r="BP33">
+        <v>21549941</v>
+      </c>
+      <c r="BQ33">
+        <v>22063295</v>
+      </c>
+      <c r="BR33">
+        <v>19054945</v>
+      </c>
+      <c r="BS33">
+        <v>21625066</v>
+      </c>
+      <c r="BT33">
+        <v>18225154</v>
+      </c>
+      <c r="BU33">
+        <v>17413861</v>
+      </c>
+      <c r="BV33">
+        <v>23928217</v>
+      </c>
+      <c r="BW33">
+        <v>26927362</v>
+      </c>
+      <c r="BX33">
+        <v>26677221</v>
+      </c>
+      <c r="BY33">
+        <v>26884283</v>
+      </c>
+      <c r="BZ33">
+        <v>31572161</v>
+      </c>
+      <c r="CA33">
+        <v>26865950</v>
+      </c>
+      <c r="CB33">
+        <v>26505361</v>
+      </c>
+      <c r="CC33">
+        <v>28270162</v>
+      </c>
+      <c r="CD33">
+        <v>23016715</v>
+      </c>
+      <c r="CE33">
+        <v>26096335</v>
+      </c>
+      <c r="CF33">
+        <v>22240304</v>
+      </c>
+      <c r="CG33">
+        <v>23911709</v>
+      </c>
+      <c r="CH33">
+        <v>25454786</v>
+      </c>
+      <c r="CI33">
+        <v>29912945</v>
+      </c>
+      <c r="CJ33">
+        <v>31539972</v>
+      </c>
+      <c r="CK33">
+        <v>28574833</v>
+      </c>
+      <c r="CL33">
+        <v>34826560</v>
+      </c>
+      <c r="CM33">
+        <v>29726466</v>
+      </c>
+      <c r="CN33">
+        <v>28747946</v>
+      </c>
+      <c r="CO33">
+        <v>34034554</v>
+      </c>
+      <c r="CP33">
+        <v>28705419</v>
+      </c>
+      <c r="CQ33">
+        <v>33952484</v>
+      </c>
+      <c r="CR33">
+        <v>24541421</v>
+      </c>
+      <c r="CS33">
+        <v>26879021</v>
+      </c>
+      <c r="CT33">
+        <v>25275132</v>
+      </c>
+      <c r="CU33">
+        <v>30378153</v>
+      </c>
+      <c r="CV33">
+        <v>35109997</v>
+      </c>
+      <c r="CW33">
+        <v>33724120</v>
+      </c>
+      <c r="CX33">
+        <v>34104504</v>
+      </c>
+      <c r="CY33">
+        <v>33044607</v>
+      </c>
+      <c r="CZ33">
+        <v>31531084</v>
+      </c>
+      <c r="DA33">
+        <v>32572819</v>
+      </c>
+      <c r="DB33">
+        <v>38382081</v>
+      </c>
+      <c r="DC33">
+        <v>32803507</v>
+      </c>
+      <c r="DD33">
+        <v>29122607</v>
+      </c>
+      <c r="DE33">
+        <v>29797837</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input/raw_regions_joined.xlsx
+++ b/input/raw_regions_joined.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeStuff\Stats\colab_linear_regression\linear_regression\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB00962-0086-4E99-9425-FD81AF8EDA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C882D5E-F3C0-4038-ACEE-74A8F45FA9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>sul</t>
   </si>
@@ -77,34 +78,100 @@
     <t>Brasil_total</t>
   </si>
   <si>
-    <t>F00-F09 - Transtornos mentais orgânicos, inclusive os sintomáticos</t>
+    <t>transtor</t>
   </si>
   <si>
-    <t>F20-F29 - Esquizofrenia, transtornos esquizotípicos e transtornos delirantes</t>
+    <t>nos</t>
   </si>
   <si>
-    <t>F30-F39 - Transtornos do humor [afetivos]</t>
+    <t>so</t>
   </si>
   <si>
-    <t>F40-F48 - Transtornos neuróticos, transtornos relacionados com o "stress" e transtornos somatoformes</t>
+    <t>matoformes</t>
   </si>
   <si>
-    <t>F50-F59 - Síndromes comportamentais associadas a disfunções fisiológicas e a fatores físicos</t>
+    <t>fatores</t>
   </si>
   <si>
-    <t>F60-F69 - Transtornos da personalidade e do comportamento do adulto</t>
+    <t>fí</t>
   </si>
   <si>
-    <t>F70-F79 - Retardo mental</t>
+    <t>sic</t>
   </si>
   <si>
-    <t>F80-F89 - Transtornos do desenvolvimento psicológico</t>
+    <t>os</t>
   </si>
   <si>
-    <t>F90-F98 - Transtornos do comportamento e transtornos emocionais que aparecem habitualmente durante a infância ou a adolescência</t>
+    <t>habitua</t>
   </si>
   <si>
-    <t>F99-F99 - Transtorno mental não especificado</t>
+    <t>lme</t>
+  </si>
+  <si>
+    <t>nte</t>
+  </si>
+  <si>
+    <t>durante a infância ou a adolescência</t>
+  </si>
+  <si>
+    <t>F00_F09</t>
+  </si>
+  <si>
+    <t>F20_F29</t>
+  </si>
+  <si>
+    <t>F30_F39</t>
+  </si>
+  <si>
+    <t>F40_F48</t>
+  </si>
+  <si>
+    <t>F50_F59</t>
+  </si>
+  <si>
+    <t>F60_F69</t>
+  </si>
+  <si>
+    <t>F70_F79</t>
+  </si>
+  <si>
+    <t>F80_F89</t>
+  </si>
+  <si>
+    <t>F90_F98</t>
+  </si>
+  <si>
+    <t>F99_F99</t>
+  </si>
+  <si>
+    <t>F00_F09_total</t>
+  </si>
+  <si>
+    <t>F20_F29_total</t>
+  </si>
+  <si>
+    <t>F30_F39_total</t>
+  </si>
+  <si>
+    <t>F40_F48_total</t>
+  </si>
+  <si>
+    <t>F50_F59_total</t>
+  </si>
+  <si>
+    <t>F60_F69_total</t>
+  </si>
+  <si>
+    <t>F70_F79_total</t>
+  </si>
+  <si>
+    <t>F80_F89_total</t>
+  </si>
+  <si>
+    <t>F90_F98_total</t>
+  </si>
+  <si>
+    <t>F99_F99_total</t>
   </si>
 </sst>
 </file>
@@ -450,12 +517,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="97.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -4740,7 +4808,7 @@
     </row>
     <row r="14" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>5200</v>
@@ -5069,7 +5137,7 @@
     </row>
     <row r="15" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>8386</v>
@@ -5398,7 +5466,7 @@
     </row>
     <row r="16" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>39870</v>
@@ -5727,7 +5795,7 @@
     </row>
     <row r="17" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>37127</v>
@@ -6056,7 +6124,7 @@
     </row>
     <row r="18" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>4423</v>
@@ -6385,7 +6453,7 @@
     </row>
     <row r="19" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>575</v>
@@ -6714,7 +6782,7 @@
     </row>
     <row r="20" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>2233</v>
@@ -7043,7 +7111,7 @@
     </row>
     <row r="21" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>3943</v>
@@ -7372,7 +7440,7 @@
     </row>
     <row r="22" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>5692</v>
@@ -7701,7 +7769,7 @@
     </row>
     <row r="23" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>2284</v>
@@ -8029,9 +8097,8 @@
       </c>
     </row>
     <row r="24" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f>_xlfn.CONCAT(A14,"_total")</f>
-        <v>F00-F09 - Transtornos mentais orgânicos, inclusive os sintomáticos_total</v>
+      <c r="A24" t="s">
+        <v>35</v>
       </c>
       <c r="B24">
         <v>7205093</v>
@@ -8359,9 +8426,8 @@
       </c>
     </row>
     <row r="25" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f>_xlfn.CONCAT(A15,"_total")</f>
-        <v>F20-F29 - Esquizofrenia, transtornos esquizotípicos e transtornos delirantes_total</v>
+      <c r="A25" t="s">
+        <v>36</v>
       </c>
       <c r="B25">
         <v>7205093</v>
@@ -8689,9 +8755,8 @@
       </c>
     </row>
     <row r="26" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f>_xlfn.CONCAT(A16,"_total")</f>
-        <v>F30-F39 - Transtornos do humor [afetivos]_total</v>
+      <c r="A26" t="s">
+        <v>37</v>
       </c>
       <c r="B26">
         <v>7205093</v>
@@ -9019,9 +9084,8 @@
       </c>
     </row>
     <row r="27" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f>_xlfn.CONCAT(A17,"_total")</f>
-        <v>F40-F48 - Transtornos neuróticos, transtornos relacionados com o "stress" e transtornos somatoformes_total</v>
+      <c r="A27" t="s">
+        <v>38</v>
       </c>
       <c r="B27">
         <v>7205093</v>
@@ -9349,9 +9413,8 @@
       </c>
     </row>
     <row r="28" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f>_xlfn.CONCAT(A18,"_total")</f>
-        <v>F50-F59 - Síndromes comportamentais associadas a disfunções fisiológicas e a fatores físicos_total</v>
+      <c r="A28" t="s">
+        <v>39</v>
       </c>
       <c r="B28">
         <v>7205093</v>
@@ -9679,9 +9742,8 @@
       </c>
     </row>
     <row r="29" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f>_xlfn.CONCAT(A19,"_total")</f>
-        <v>F60-F69 - Transtornos da personalidade e do comportamento do adulto_total</v>
+      <c r="A29" t="s">
+        <v>40</v>
       </c>
       <c r="B29">
         <v>7205093</v>
@@ -10009,9 +10071,8 @@
       </c>
     </row>
     <row r="30" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f>_xlfn.CONCAT(A20,"_total")</f>
-        <v>F70-F79 - Retardo mental_total</v>
+      <c r="A30" t="s">
+        <v>41</v>
       </c>
       <c r="B30">
         <v>7205093</v>
@@ -10339,9 +10400,8 @@
       </c>
     </row>
     <row r="31" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f>_xlfn.CONCAT(A21,"_total")</f>
-        <v>F80-F89 - Transtornos do desenvolvimento psicológico_total</v>
+      <c r="A31" t="s">
+        <v>42</v>
       </c>
       <c r="B31">
         <v>7205093</v>
@@ -10669,9 +10729,8 @@
       </c>
     </row>
     <row r="32" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f>_xlfn.CONCAT(A22,"_total")</f>
-        <v>F90-F98 - Transtornos do comportamento e transtornos emocionais que aparecem habitualmente durante a infância ou a adolescência_total</v>
+      <c r="A32" t="s">
+        <v>43</v>
       </c>
       <c r="B32">
         <v>7205093</v>
@@ -10999,9 +11058,8 @@
       </c>
     </row>
     <row r="33" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
-        <f>_xlfn.CONCAT(A23,"_total")</f>
-        <v>F99-F99 - Transtorno mental não especificado_total</v>
+      <c r="A33" t="s">
+        <v>44</v>
       </c>
       <c r="B33">
         <v>7205093</v>
@@ -11326,6 +11384,157 @@
       </c>
       <c r="DE33">
         <v>29797837</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2CB540-C279-44BF-9328-BD341D4DDD2E}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/input/raw_regions_joined.xlsx
+++ b/input/raw_regions_joined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeStuff\Stats\colab_linear_regression\linear_regression\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C882D5E-F3C0-4038-ACEE-74A8F45FA9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46DC4DD-83F6-473A-858E-F58875C1643B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,15 +518,13 @@
   <dimension ref="A1:DE33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="97.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="109" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:109" x14ac:dyDescent="0.25">
@@ -11388,6 +11386,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
